--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_25_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_25_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>347969.6782594754</v>
+        <v>284268.3475264952</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10500601.02362875</v>
+        <v>8666268.959347745</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7920270.647819594</v>
+        <v>8778504.334061949</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>81.61928733384123</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>86.27197698880641</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>43.07008646612802</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="X2" t="n">
-        <v>92.6649492891022</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="Y2" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,22 +740,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>92.6649492891022</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="D3" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.2420688160423</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>101.5977720414757</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>81.61928733384123</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,13 +794,13 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>38.34834368612493</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>21.41405905276465</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -901,25 +901,25 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>146.8461210887083</v>
       </c>
       <c r="E5" t="n">
-        <v>112.1126601249237</v>
+        <v>123.0172992876054</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>6.324764167328851</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,19 +940,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.395679379570657</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>95.3531516584621</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>146.8461210887083</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>146.8461210887083</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -983,13 +983,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>139.9461157276003</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>89.49227226221136</v>
+        <v>136.2420688160423</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>9.256558775821418</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>112.1126601249237</v>
+        <v>146.8461210887083</v>
       </c>
       <c r="V6" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>146.8461210887083</v>
       </c>
     </row>
     <row r="7">
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>3.625377488803587</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>21.41405905276456</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>39.61451255043812</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>165.1725371760947</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1177,16 +1177,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.9757828529239987</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>86.83958259249187</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>152.8857872466161</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1226,16 +1226,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,22 +1262,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>127.429877995854</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>19.59281863505174</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>52.21594625443466</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>165.1725371760945</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>187.52558716632</v>
+        <v>85.97636447956961</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>187.52558716632</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1448,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>165.1725371760946</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
-        <v>187.52558716632</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>187.52558716632</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>187.52558716632</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1533,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>124.4808309317252</v>
       </c>
       <c r="F13" t="n">
-        <v>52.21594625443443</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>19.68942351146577</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>187.5255871663198</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>165.1725371760945</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,28 +1685,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
-        <v>187.5255871663198</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>187.5255871663198</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>165.1725371760945</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>187.5255871663198</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>52.21594625443442</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>126.6966386352557</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1852,19 +1852,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>138.1665993380032</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>304.919905495285</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2010,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>3.867365032348236</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>81.77200357366338</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,10 +2083,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>24.78311755148421</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2098,10 +2098,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>168.1158122680963</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>6.753850549432231</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>127.6752559270063</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>410.9217256534534</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2380,13 +2380,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>121.3678547155331</v>
+        <v>9.152727013335593</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851095</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
         <v>18.81721868247742</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>34.89598650107069</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>185.8117075282594</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2560,22 +2560,22 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>325.382462482122</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>184.1477353216912</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,10 +2611,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2693,7 +2693,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V27" t="n">
-        <v>232.800587149425</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -2715,22 +2715,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>124.4808309317252</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2809,7 +2809,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>44.75951530680847</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>23.74571998351914</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247723</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>149.2188428680698</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>83.27365849109736</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>111.4702381038701</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3046,10 +3046,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3094,10 +3094,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>264.380851832793</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3201,10 +3201,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>34.8959865010708</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>72.08802744677259</v>
       </c>
     </row>
     <row r="35">
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>24.14763241892861</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>57.92556443677338</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>72.0880274467727</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>54.51165059784287</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,25 +3505,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>145.2481701217147</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>16.70871526400947</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3596,7 +3596,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>134.9994691657078</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
         <v>89.59687541851115</v>
@@ -3663,19 +3663,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3720,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>88.58584547962775</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,10 +3742,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>247.2137552618556</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3757,10 +3757,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>201.66221878632</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3903,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>141.4558507036724</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>54.05027546551501</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>52.80938221506528</v>
+        <v>184.6009852547325</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4143,16 +4143,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>143.4409407674612</v>
       </c>
       <c r="F46" t="n">
-        <v>119.5036915764477</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4197,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="C2" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="D2" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="E2" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="F2" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="G2" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="H2" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="I2" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="J2" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="K2" t="n">
-        <v>21.18357364821451</v>
+        <v>53.10181779183017</v>
       </c>
       <c r="L2" t="n">
-        <v>75.16870670940374</v>
+        <v>141.3070323458394</v>
       </c>
       <c r="M2" t="n">
-        <v>166.9070065056149</v>
+        <v>271.1217663066257</v>
       </c>
       <c r="N2" t="n">
-        <v>258.6453063018261</v>
+        <v>407.650846758856</v>
       </c>
       <c r="O2" t="n">
-        <v>337.6943058037292</v>
+        <v>523.2361246735303</v>
       </c>
       <c r="P2" t="n">
-        <v>370.6597971564088</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="Q2" t="n">
-        <v>370.6597971564088</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="R2" t="n">
-        <v>370.6597971564088</v>
+        <v>500.2410732550297</v>
       </c>
       <c r="S2" t="n">
-        <v>370.6597971564088</v>
+        <v>500.2410732550297</v>
       </c>
       <c r="T2" t="n">
-        <v>277.0588382785278</v>
+        <v>500.2410732550297</v>
       </c>
       <c r="U2" t="n">
-        <v>277.0588382785278</v>
+        <v>351.91165801391</v>
       </c>
       <c r="V2" t="n">
-        <v>277.0588382785278</v>
+        <v>308.4065201693362</v>
       </c>
       <c r="W2" t="n">
-        <v>277.0588382785278</v>
+        <v>160.0771049282164</v>
       </c>
       <c r="X2" t="n">
-        <v>183.4578794006468</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="Y2" t="n">
-        <v>89.85692052276578</v>
+        <v>11.74768968709668</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>288.2160725767712</v>
+        <v>400.3193684206589</v>
       </c>
       <c r="C3" t="n">
-        <v>194.6151136988902</v>
+        <v>251.9899531795391</v>
       </c>
       <c r="D3" t="n">
-        <v>101.0141548210092</v>
+        <v>251.9899531795391</v>
       </c>
       <c r="E3" t="n">
-        <v>7.413195943128176</v>
+        <v>251.9899531795391</v>
       </c>
       <c r="F3" t="n">
-        <v>7.413195943128176</v>
+        <v>251.9899531795391</v>
       </c>
       <c r="G3" t="n">
-        <v>7.413195943128176</v>
+        <v>114.3717018502035</v>
       </c>
       <c r="H3" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="I3" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="J3" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="K3" t="n">
-        <v>28.29609765201163</v>
+        <v>51.36582106616808</v>
       </c>
       <c r="L3" t="n">
-        <v>102.6982772648967</v>
+        <v>150.9598290415665</v>
       </c>
       <c r="M3" t="n">
-        <v>194.4365770611079</v>
+        <v>286.5382069752468</v>
       </c>
       <c r="N3" t="n">
-        <v>286.1748768573191</v>
+        <v>431.9158668530682</v>
       </c>
       <c r="O3" t="n">
-        <v>370.6597971564088</v>
+        <v>550.1875401335669</v>
       </c>
       <c r="P3" t="n">
-        <v>370.6597971564088</v>
+        <v>586.7735145200476</v>
       </c>
       <c r="Q3" t="n">
-        <v>370.6597971564088</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="R3" t="n">
-        <v>288.2160725767712</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="S3" t="n">
-        <v>288.2160725767712</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="T3" t="n">
-        <v>288.2160725767712</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="U3" t="n">
-        <v>288.2160725767712</v>
+        <v>548.6487836617787</v>
       </c>
       <c r="V3" t="n">
-        <v>288.2160725767712</v>
+        <v>548.6487836617787</v>
       </c>
       <c r="W3" t="n">
-        <v>288.2160725767712</v>
+        <v>400.3193684206589</v>
       </c>
       <c r="X3" t="n">
-        <v>288.2160725767712</v>
+        <v>400.3193684206589</v>
       </c>
       <c r="Y3" t="n">
-        <v>288.2160725767712</v>
+        <v>400.3193684206589</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="C4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="D4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="E4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="F4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="G4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="H4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="I4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="J4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="K4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="L4" t="n">
-        <v>7.413195943128176</v>
+        <v>14.12595803543237</v>
       </c>
       <c r="M4" t="n">
-        <v>7.413195943128176</v>
+        <v>19.89179156510262</v>
       </c>
       <c r="N4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665694</v>
       </c>
       <c r="O4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665694</v>
       </c>
       <c r="P4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665694</v>
       </c>
       <c r="Q4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665694</v>
       </c>
       <c r="R4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665694</v>
       </c>
       <c r="S4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665694</v>
       </c>
       <c r="T4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665694</v>
       </c>
       <c r="U4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665694</v>
       </c>
       <c r="V4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665694</v>
       </c>
       <c r="W4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="X4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709668</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>348.704346521884</v>
+        <v>290.7256538725942</v>
       </c>
       <c r="C5" t="n">
-        <v>348.704346521884</v>
+        <v>290.7256538725942</v>
       </c>
       <c r="D5" t="n">
-        <v>348.704346521884</v>
+        <v>142.3962386314747</v>
       </c>
       <c r="E5" t="n">
-        <v>235.4592352845873</v>
+        <v>18.13634036116621</v>
       </c>
       <c r="F5" t="n">
-        <v>235.4592352845873</v>
+        <v>18.13634036116621</v>
       </c>
       <c r="G5" t="n">
-        <v>122.2141240472906</v>
+        <v>18.13634036116621</v>
       </c>
       <c r="H5" t="n">
-        <v>8.969012809993897</v>
+        <v>18.13634036116621</v>
       </c>
       <c r="I5" t="n">
-        <v>8.969012809993897</v>
+        <v>18.13634036116621</v>
       </c>
       <c r="J5" t="n">
-        <v>8.969012809993897</v>
+        <v>11.74768968709666</v>
       </c>
       <c r="K5" t="n">
-        <v>32.11753523687554</v>
+        <v>53.10181779182949</v>
       </c>
       <c r="L5" t="n">
-        <v>97.73708609773416</v>
+        <v>141.3070323458388</v>
       </c>
       <c r="M5" t="n">
-        <v>202.4209174083931</v>
+        <v>271.1217663066247</v>
       </c>
       <c r="N5" t="n">
-        <v>313.4124509320676</v>
+        <v>407.650846758855</v>
       </c>
       <c r="O5" t="n">
-        <v>404.8833474416799</v>
+        <v>523.2361246735293</v>
       </c>
       <c r="P5" t="n">
-        <v>448.4506404996948</v>
+        <v>587.3844843548331</v>
       </c>
       <c r="Q5" t="n">
-        <v>445.0206613284113</v>
+        <v>587.3844843548331</v>
       </c>
       <c r="R5" t="n">
-        <v>348.704346521884</v>
+        <v>587.3844843548331</v>
       </c>
       <c r="S5" t="n">
-        <v>348.704346521884</v>
+        <v>587.3844843548331</v>
       </c>
       <c r="T5" t="n">
-        <v>348.704346521884</v>
+        <v>439.0550691137137</v>
       </c>
       <c r="U5" t="n">
-        <v>348.704346521884</v>
+        <v>290.7256538725942</v>
       </c>
       <c r="V5" t="n">
-        <v>348.704346521884</v>
+        <v>290.7256538725942</v>
       </c>
       <c r="W5" t="n">
-        <v>348.704346521884</v>
+        <v>290.7256538725942</v>
       </c>
       <c r="X5" t="n">
-        <v>348.704346521884</v>
+        <v>290.7256538725942</v>
       </c>
       <c r="Y5" t="n">
-        <v>348.704346521884</v>
+        <v>290.7256538725942</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>99.36524741828821</v>
+        <v>290.7256538725942</v>
       </c>
       <c r="C6" t="n">
-        <v>99.36524741828821</v>
+        <v>290.7256538725942</v>
       </c>
       <c r="D6" t="n">
-        <v>99.36524741828821</v>
+        <v>290.7256538725942</v>
       </c>
       <c r="E6" t="n">
-        <v>99.36524741828821</v>
+        <v>149.3659410164323</v>
       </c>
       <c r="F6" t="n">
-        <v>99.36524741828821</v>
+        <v>149.3659410164323</v>
       </c>
       <c r="G6" t="n">
-        <v>8.969012809993897</v>
+        <v>11.74768968709666</v>
       </c>
       <c r="H6" t="n">
-        <v>8.969012809993897</v>
+        <v>11.74768968709666</v>
       </c>
       <c r="I6" t="n">
-        <v>8.969012809993897</v>
+        <v>11.74768968709666</v>
       </c>
       <c r="J6" t="n">
-        <v>8.969012809993897</v>
+        <v>11.74768968709666</v>
       </c>
       <c r="K6" t="n">
-        <v>36.22166818534551</v>
+        <v>51.36582106616804</v>
       </c>
       <c r="L6" t="n">
-        <v>119.1887676792232</v>
+        <v>150.9598290415664</v>
       </c>
       <c r="M6" t="n">
-        <v>230.1803012028977</v>
+        <v>286.5382069752466</v>
       </c>
       <c r="N6" t="n">
-        <v>341.1718347265722</v>
+        <v>431.9158668530678</v>
       </c>
       <c r="O6" t="n">
-        <v>387.4830745953196</v>
+        <v>550.1875401335664</v>
       </c>
       <c r="P6" t="n">
-        <v>448.4506404996948</v>
+        <v>586.7735145200465</v>
       </c>
       <c r="Q6" t="n">
-        <v>439.1005811301782</v>
+        <v>587.3844843548331</v>
       </c>
       <c r="R6" t="n">
-        <v>439.1005811301782</v>
+        <v>587.3844843548331</v>
       </c>
       <c r="S6" t="n">
-        <v>439.1005811301782</v>
+        <v>587.3844843548331</v>
       </c>
       <c r="T6" t="n">
-        <v>439.1005811301782</v>
+        <v>587.3844843548331</v>
       </c>
       <c r="U6" t="n">
-        <v>325.8554698928816</v>
+        <v>439.0550691137137</v>
       </c>
       <c r="V6" t="n">
-        <v>212.6103586555849</v>
+        <v>439.0550691137137</v>
       </c>
       <c r="W6" t="n">
-        <v>99.36524741828821</v>
+        <v>439.0550691137137</v>
       </c>
       <c r="X6" t="n">
-        <v>99.36524741828821</v>
+        <v>439.0550691137137</v>
       </c>
       <c r="Y6" t="n">
-        <v>99.36524741828821</v>
+        <v>290.7256538725942</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.63101027343186</v>
+        <v>11.74768968709666</v>
       </c>
       <c r="C7" t="n">
-        <v>12.63101027343186</v>
+        <v>11.74768968709666</v>
       </c>
       <c r="D7" t="n">
-        <v>12.63101027343186</v>
+        <v>11.74768968709666</v>
       </c>
       <c r="E7" t="n">
-        <v>12.63101027343186</v>
+        <v>11.74768968709666</v>
       </c>
       <c r="F7" t="n">
-        <v>12.63101027343186</v>
+        <v>11.74768968709666</v>
       </c>
       <c r="G7" t="n">
-        <v>12.63101027343186</v>
+        <v>11.74768968709666</v>
       </c>
       <c r="H7" t="n">
-        <v>12.63101027343186</v>
+        <v>11.74768968709666</v>
       </c>
       <c r="I7" t="n">
-        <v>8.969012809993897</v>
+        <v>11.74768968709666</v>
       </c>
       <c r="J7" t="n">
-        <v>8.969012809993897</v>
+        <v>11.74768968709666</v>
       </c>
       <c r="K7" t="n">
-        <v>8.969012809993897</v>
+        <v>11.74768968709666</v>
       </c>
       <c r="L7" t="n">
-        <v>8.969012809993897</v>
+        <v>14.12595803543232</v>
       </c>
       <c r="M7" t="n">
-        <v>8.969012809993897</v>
+        <v>19.89179156510255</v>
       </c>
       <c r="N7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665683</v>
       </c>
       <c r="O7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665683</v>
       </c>
       <c r="P7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665683</v>
       </c>
       <c r="Q7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665683</v>
       </c>
       <c r="R7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665683</v>
       </c>
       <c r="S7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665683</v>
       </c>
       <c r="T7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665683</v>
       </c>
       <c r="U7" t="n">
-        <v>12.63101027343186</v>
+        <v>11.74768968709666</v>
       </c>
       <c r="V7" t="n">
-        <v>12.63101027343186</v>
+        <v>11.74768968709666</v>
       </c>
       <c r="W7" t="n">
-        <v>12.63101027343186</v>
+        <v>11.74768968709666</v>
       </c>
       <c r="X7" t="n">
-        <v>12.63101027343186</v>
+        <v>11.74768968709666</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.63101027343186</v>
+        <v>11.74768968709666</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>51.58867167554007</v>
+        <v>560.6825636487954</v>
       </c>
       <c r="C8" t="n">
-        <v>51.58867167554007</v>
+        <v>560.6825636487954</v>
       </c>
       <c r="D8" t="n">
-        <v>11.57401253368338</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="E8" t="n">
-        <v>11.57401253368338</v>
+        <v>181.8429936158255</v>
       </c>
       <c r="F8" t="n">
-        <v>11.57401253368338</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G8" t="n">
-        <v>11.57401253368338</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H8" t="n">
-        <v>11.57401253368338</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I8" t="n">
-        <v>11.57401253368338</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J8" t="n">
-        <v>11.57401253368338</v>
+        <v>21.03371160678508</v>
       </c>
       <c r="K8" t="n">
-        <v>51.79022575657168</v>
+        <v>80.81213159058969</v>
       </c>
       <c r="L8" t="n">
-        <v>138.5837562783352</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M8" t="n">
-        <v>266.8277197508551</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N8" t="n">
-        <v>401.7606130061291</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O8" t="n">
-        <v>515.8386566132575</v>
+        <v>649.4845259985586</v>
       </c>
       <c r="P8" t="n">
-        <v>578.7006266841692</v>
+        <v>734.461172602027</v>
       </c>
       <c r="Q8" t="n">
-        <v>577.7149874387914</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R8" t="n">
-        <v>489.9982373453652</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="S8" t="n">
-        <v>489.9982373453652</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="T8" t="n">
-        <v>489.9982373453652</v>
+        <v>560.6825636487954</v>
       </c>
       <c r="U8" t="n">
-        <v>489.9982373453652</v>
+        <v>560.6825636487954</v>
       </c>
       <c r="V8" t="n">
-        <v>489.9982373453652</v>
+        <v>560.6825636487954</v>
       </c>
       <c r="W8" t="n">
-        <v>489.9982373453652</v>
+        <v>560.6825636487954</v>
       </c>
       <c r="X8" t="n">
-        <v>343.8617154554235</v>
+        <v>560.6825636487954</v>
       </c>
       <c r="Y8" t="n">
-        <v>197.7251935654818</v>
+        <v>560.6825636487954</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.57401253368338</v>
+        <v>444.3891850919815</v>
       </c>
       <c r="C9" t="n">
-        <v>11.57401253368338</v>
+        <v>269.9361558108545</v>
       </c>
       <c r="D9" t="n">
-        <v>11.57401253368338</v>
+        <v>269.9361558108545</v>
       </c>
       <c r="E9" t="n">
-        <v>11.57401253368338</v>
+        <v>269.9361558108545</v>
       </c>
       <c r="F9" t="n">
-        <v>11.57401253368338</v>
+        <v>269.9361558108545</v>
       </c>
       <c r="G9" t="n">
-        <v>11.57401253368338</v>
+        <v>132.3969746333036</v>
       </c>
       <c r="H9" t="n">
-        <v>11.57401253368338</v>
+        <v>30.53661367296051</v>
       </c>
       <c r="I9" t="n">
-        <v>11.57401253368338</v>
+        <v>30.53661367296051</v>
       </c>
       <c r="J9" t="n">
-        <v>11.57401253368338</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K9" t="n">
-        <v>50.41925783498756</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L9" t="n">
-        <v>148.9740250987618</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M9" t="n">
-        <v>283.3396581397943</v>
+        <v>338.7690911140248</v>
       </c>
       <c r="N9" t="n">
-        <v>426.5680632441262</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O9" t="n">
-        <v>504.0242257254407</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P9" t="n">
-        <v>578.7006266841692</v>
+        <v>739.5989987017067</v>
       </c>
       <c r="Q9" t="n">
-        <v>578.7006266841692</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R9" t="n">
-        <v>578.7006266841692</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="S9" t="n">
-        <v>578.7006266841692</v>
+        <v>598.8192732198765</v>
       </c>
       <c r="T9" t="n">
-        <v>578.7006266841692</v>
+        <v>598.8192732198765</v>
       </c>
       <c r="U9" t="n">
-        <v>432.5641047942274</v>
+        <v>598.8192732198765</v>
       </c>
       <c r="V9" t="n">
-        <v>286.4275829042857</v>
+        <v>598.8192732198765</v>
       </c>
       <c r="W9" t="n">
-        <v>140.291061014344</v>
+        <v>598.8192732198765</v>
       </c>
       <c r="X9" t="n">
-        <v>11.57401253368338</v>
+        <v>598.8192732198765</v>
       </c>
       <c r="Y9" t="n">
-        <v>11.57401253368338</v>
+        <v>598.8192732198765</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11.57401253368338</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C10" t="n">
-        <v>11.57401253368338</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D10" t="n">
-        <v>11.57401253368338</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E10" t="n">
-        <v>11.57401253368338</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F10" t="n">
-        <v>11.57401253368338</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G10" t="n">
-        <v>11.57401253368338</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H10" t="n">
-        <v>11.57401253368338</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I10" t="n">
-        <v>11.57401253368338</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J10" t="n">
-        <v>11.57401253368338</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K10" t="n">
-        <v>11.57401253368338</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L10" t="n">
-        <v>13.35570305153742</v>
+        <v>27.03967056230183</v>
       </c>
       <c r="M10" t="n">
-        <v>18.49252890534889</v>
+        <v>42.98993985170729</v>
       </c>
       <c r="N10" t="n">
-        <v>31.36473842767504</v>
+        <v>66.41847329396353</v>
       </c>
       <c r="O10" t="n">
-        <v>31.36473842767504</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="P10" t="n">
-        <v>31.36473842767504</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Q10" t="n">
-        <v>31.36473842767504</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="R10" t="n">
-        <v>31.36473842767504</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="S10" t="n">
-        <v>11.57401253368338</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="T10" t="n">
-        <v>11.57401253368338</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="U10" t="n">
-        <v>11.57401253368338</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="V10" t="n">
-        <v>11.57401253368338</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="W10" t="n">
-        <v>11.57401253368338</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X10" t="n">
-        <v>11.57401253368338</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y10" t="n">
-        <v>11.57401253368338</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>371.2627786323101</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C11" t="n">
-        <v>371.2627786323101</v>
+        <v>939.4077790033352</v>
       </c>
       <c r="D11" t="n">
-        <v>371.2627786323101</v>
+        <v>581.1420803965848</v>
       </c>
       <c r="E11" t="n">
-        <v>204.4218319897904</v>
+        <v>195.3538277983405</v>
       </c>
       <c r="F11" t="n">
-        <v>15.0020469733056</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G11" t="n">
-        <v>15.0020469733056</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
-        <v>15.0020469733056</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>15.0020469733056</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
-        <v>21.03371160678478</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>80.81213159058939</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L11" t="n">
-        <v>191.8743094079184</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>347.1218190644753</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>509.4952041123828</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>649.4845259985584</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>734.4611726020266</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>750.1023486652798</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>750.1023486652798</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>750.1023486652798</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T11" t="n">
-        <v>750.1023486652798</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U11" t="n">
-        <v>750.1023486652798</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>750.1023486652798</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W11" t="n">
-        <v>750.1023486652798</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X11" t="n">
-        <v>750.1023486652798</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y11" t="n">
-        <v>560.6825636487949</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>15.0020469733056</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C12" t="n">
-        <v>15.0020469733056</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D12" t="n">
-        <v>15.0020469733056</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E12" t="n">
-        <v>15.0020469733056</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F12" t="n">
-        <v>15.0020469733056</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G12" t="n">
-        <v>15.0020469733056</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H12" t="n">
-        <v>15.0020469733056</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>15.0020469733056</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
-        <v>15.0020469733056</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>67.13418877024242</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>183.554828077265</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
-        <v>338.7690911140246</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>512.5000587546604</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>649.2101578476351</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>739.5989987017064</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>750.1023486652798</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>750.1023486652798</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>750.1023486652798</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>750.1023486652798</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>583.26140202276</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>393.8416170062752</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>204.4218319897904</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>204.4218319897904</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>15.0020469733056</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>67.74542702828987</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="C13" t="n">
-        <v>67.74542702828987</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="D13" t="n">
-        <v>67.74542702828987</v>
+        <v>192.2503294945321</v>
       </c>
       <c r="E13" t="n">
-        <v>67.74542702828987</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F13" t="n">
-        <v>15.0020469733056</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G13" t="n">
-        <v>15.0020469733056</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H13" t="n">
-        <v>15.0020469733056</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I13" t="n">
-        <v>15.0020469733056</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
-        <v>15.0020469733056</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K13" t="n">
-        <v>15.0020469733056</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L13" t="n">
-        <v>27.03967056230176</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M13" t="n">
-        <v>42.98993985170716</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N13" t="n">
-        <v>66.41847329396334</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O13" t="n">
-        <v>67.74542702828987</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P13" t="n">
-        <v>67.74542702828987</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q13" t="n">
-        <v>67.74542702828987</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R13" t="n">
-        <v>67.74542702828987</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S13" t="n">
-        <v>67.74542702828987</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T13" t="n">
-        <v>67.74542702828987</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U13" t="n">
-        <v>67.74542702828987</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V13" t="n">
-        <v>67.74542702828987</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="W13" t="n">
-        <v>67.74542702828987</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="X13" t="n">
-        <v>67.74542702828987</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="Y13" t="n">
-        <v>67.74542702828987</v>
+        <v>342.3669689068678</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>371.26277863231</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C14" t="n">
-        <v>371.26277863231</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D14" t="n">
-        <v>371.26277863231</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E14" t="n">
-        <v>371.26277863231</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F14" t="n">
-        <v>181.8429936158253</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G14" t="n">
-        <v>15.00204697330559</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
-        <v>15.00204697330559</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>15.00204697330559</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J14" t="n">
-        <v>21.03371160678495</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>80.81213159058944</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>191.8743094079184</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>347.1218190644752</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>509.4952041123826</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>649.484525998558</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>734.4611726020262</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>750.1023486652794</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>750.1023486652794</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>750.1023486652794</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T14" t="n">
-        <v>750.1023486652794</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U14" t="n">
-        <v>750.1023486652794</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V14" t="n">
-        <v>750.1023486652794</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W14" t="n">
-        <v>750.1023486652794</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X14" t="n">
-        <v>750.1023486652794</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y14" t="n">
-        <v>560.6825636487947</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15.00204697330559</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>15.00204697330559</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>15.00204697330559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>15.00204697330559</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>15.00204697330559</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>15.00204697330559</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>15.00204697330559</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>15.00204697330559</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
-        <v>15.00204697330559</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>67.13418877024213</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>183.5548280772649</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
-        <v>338.7690911140244</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>512.5000587546601</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>649.2101578476348</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>739.5989987017063</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>750.1023486652797</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>750.1023486652797</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>750.1023486652794</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>750.1023486652794</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>750.1023486652794</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>560.6825636487947</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>371.26277863231</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>204.4218319897903</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>15.00204697330559</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>67.74542702828985</v>
+        <v>508.4085425014811</v>
       </c>
       <c r="C16" t="n">
-        <v>15.00204697330559</v>
+        <v>508.4085425014811</v>
       </c>
       <c r="D16" t="n">
-        <v>15.00204697330559</v>
+        <v>508.4085425014811</v>
       </c>
       <c r="E16" t="n">
-        <v>15.00204697330559</v>
+        <v>508.4085425014811</v>
       </c>
       <c r="F16" t="n">
-        <v>15.00204697330559</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G16" t="n">
-        <v>15.00204697330559</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H16" t="n">
-        <v>15.00204697330559</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I16" t="n">
-        <v>15.00204697330559</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J16" t="n">
-        <v>15.00204697330559</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K16" t="n">
-        <v>15.00204697330559</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L16" t="n">
-        <v>27.03967056230175</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M16" t="n">
-        <v>42.98993985170716</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N16" t="n">
-        <v>66.41847329396333</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O16" t="n">
-        <v>67.74542702828985</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P16" t="n">
-        <v>67.74542702828985</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q16" t="n">
-        <v>67.74542702828985</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R16" t="n">
-        <v>67.74542702828985</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S16" t="n">
-        <v>67.74542702828985</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T16" t="n">
-        <v>67.74542702828985</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="U16" t="n">
-        <v>67.74542702828985</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="V16" t="n">
-        <v>67.74542702828985</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="W16" t="n">
-        <v>67.74542702828985</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="X16" t="n">
-        <v>67.74542702828985</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="Y16" t="n">
-        <v>67.74542702828985</v>
+        <v>508.4085425014811</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2098.941407629259</v>
+        <v>2196.097994299122</v>
       </c>
       <c r="C17" t="n">
-        <v>1729.978890688848</v>
+        <v>1827.13547735871</v>
       </c>
       <c r="D17" t="n">
-        <v>1371.713192082097</v>
+        <v>1468.86977875196</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528558</v>
+        <v>1083.081526153716</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>672.0956213641082</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I17" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
@@ -5542,25 +5542,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T17" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U17" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V17" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W17" t="n">
-        <v>2862.546497866151</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X17" t="n">
-        <v>2489.080739605071</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="Y17" t="n">
-        <v>2098.941407629259</v>
+        <v>2582.697834363244</v>
       </c>
     </row>
     <row r="18">
@@ -5588,7 +5588,7 @@
         <v>176.0213023927777</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
         <v>66.5121164321834</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66.5121164321834</v>
+        <v>218.3316393401808</v>
       </c>
       <c r="C19" t="n">
-        <v>66.5121164321834</v>
+        <v>218.3316393401808</v>
       </c>
       <c r="D19" t="n">
-        <v>66.5121164321834</v>
+        <v>218.3316393401808</v>
       </c>
       <c r="E19" t="n">
-        <v>66.5121164321834</v>
+        <v>70.41854575778768</v>
       </c>
       <c r="F19" t="n">
-        <v>66.5121164321834</v>
+        <v>70.41854575778768</v>
       </c>
       <c r="G19" t="n">
         <v>66.5121164321834</v>
@@ -5700,25 +5700,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S19" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T19" t="n">
-        <v>838.2890224104441</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="U19" t="n">
-        <v>549.1861555360877</v>
+        <v>218.3316393401808</v>
       </c>
       <c r="V19" t="n">
-        <v>294.5016673302007</v>
+        <v>218.3316393401808</v>
       </c>
       <c r="W19" t="n">
-        <v>294.5016673302007</v>
+        <v>218.3316393401808</v>
       </c>
       <c r="X19" t="n">
-        <v>66.5121164321834</v>
+        <v>218.3316393401808</v>
       </c>
       <c r="Y19" t="n">
-        <v>66.5121164321834</v>
+        <v>218.3316393401808</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1642.972675199009</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C20" t="n">
-        <v>1642.972675199009</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D20" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E20" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V20" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W20" t="n">
-        <v>2403.038273524211</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X20" t="n">
-        <v>2029.572515263131</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y20" t="n">
-        <v>2029.572515263131</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="21">
@@ -5822,16 +5822,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>631.4698357812244</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="C22" t="n">
-        <v>631.4698357812244</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="D22" t="n">
-        <v>631.4698357812244</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="E22" t="n">
-        <v>624.6477645191717</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="F22" t="n">
-        <v>477.7578170212613</v>
+        <v>195.4770214089575</v>
       </c>
       <c r="G22" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H22" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K22" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L22" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M22" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N22" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O22" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P22" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q22" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R22" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S22" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T22" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U22" t="n">
-        <v>920.887005818185</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V22" t="n">
-        <v>920.887005818185</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="W22" t="n">
-        <v>631.4698357812244</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="X22" t="n">
-        <v>631.4698357812244</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="Y22" t="n">
-        <v>631.4698357812244</v>
+        <v>342.3669689068678</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1575.915835277607</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C23" t="n">
-        <v>1206.953318337195</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D23" t="n">
-        <v>1206.953318337195</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E23" t="n">
-        <v>821.1650657389509</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F23" t="n">
         <v>821.1650657389509</v>
@@ -5989,16 +5989,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
         <v>2120.555556060171</v>
@@ -6016,25 +6016,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V23" t="n">
-        <v>2424.744041450754</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W23" t="n">
-        <v>2071.975386180639</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="X23" t="n">
-        <v>1698.50962791956</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="Y23" t="n">
-        <v>1575.915835277607</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="24">
@@ -6044,64 +6044,64 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601596</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064582</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q24" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T24" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>657.6489837069648</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C25" t="n">
-        <v>657.6489837069648</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D25" t="n">
-        <v>507.5323442946291</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E25" t="n">
-        <v>359.619250712236</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F25" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G25" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
         <v>66.51211643218342</v>
@@ -6177,22 +6177,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T25" t="n">
-        <v>885.6385346049822</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U25" t="n">
-        <v>885.6385346049822</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="V25" t="n">
-        <v>885.6385346049822</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="W25" t="n">
-        <v>885.6385346049822</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="X25" t="n">
-        <v>657.6489837069648</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="Y25" t="n">
-        <v>657.6489837069648</v>
+        <v>511.4317969248226</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1238.038871968308</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C26" t="n">
-        <v>1238.038871968308</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="D26" t="n">
-        <v>909.3697179459625</v>
+        <v>1464.366537431292</v>
       </c>
       <c r="E26" t="n">
-        <v>523.5814653477182</v>
+        <v>1078.578284833048</v>
       </c>
       <c r="F26" t="n">
-        <v>523.5814653477182</v>
+        <v>667.5923800434407</v>
       </c>
       <c r="G26" t="n">
-        <v>108.5090151927147</v>
+        <v>252.5199298884372</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
         <v>255.3912473912088</v>
@@ -6250,28 +6250,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U26" t="n">
-        <v>3072.075344883006</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V26" t="n">
-        <v>2741.012457539436</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W26" t="n">
-        <v>2388.243802269321</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X26" t="n">
-        <v>2014.778044008242</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y26" t="n">
-        <v>1624.63871203243</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>342.3669689068678</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C28" t="n">
-        <v>342.3669689068678</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D28" t="n">
-        <v>192.2503294945321</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E28" t="n">
-        <v>192.2503294945321</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F28" t="n">
-        <v>192.2503294945321</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G28" t="n">
-        <v>192.2503294945321</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L28" t="n">
         <v>332.3555681596505</v>
@@ -6414,22 +6414,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T28" t="n">
-        <v>920.8870058181849</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="U28" t="n">
-        <v>631.7841389438285</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="V28" t="n">
-        <v>631.7841389438285</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="W28" t="n">
-        <v>342.3669689068678</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="X28" t="n">
-        <v>342.3669689068678</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y28" t="n">
-        <v>342.3669689068678</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2005.586939522201</v>
+        <v>1681.836054204828</v>
       </c>
       <c r="C29" t="n">
-        <v>1636.624422581789</v>
+        <v>1681.836054204828</v>
       </c>
       <c r="D29" t="n">
-        <v>1278.358723975039</v>
+        <v>1323.570355598078</v>
       </c>
       <c r="E29" t="n">
-        <v>892.5704713767946</v>
+        <v>937.7821029998333</v>
       </c>
       <c r="F29" t="n">
-        <v>481.5845665871869</v>
+        <v>526.7961982102258</v>
       </c>
       <c r="G29" t="n">
-        <v>66.5121164321834</v>
+        <v>111.7237480552223</v>
       </c>
       <c r="H29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329465</v>
@@ -6475,40 +6475,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V29" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W29" t="n">
-        <v>2403.038273524209</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X29" t="n">
-        <v>2029.572515263129</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y29" t="n">
-        <v>2005.586939522201</v>
+        <v>1681.836054204828</v>
       </c>
     </row>
     <row r="30">
@@ -6539,10 +6539,10 @@
         <v>85.51940803064525</v>
       </c>
       <c r="I30" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031479</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>549.3683227675135</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C31" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D31" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E31" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F31" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G31" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L31" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M31" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N31" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O31" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P31" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q31" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R31" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S31" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="T31" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="U31" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="V31" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="W31" t="n">
-        <v>920.8870058181849</v>
+        <v>645.0863150883474</v>
       </c>
       <c r="X31" t="n">
-        <v>920.8870058181849</v>
+        <v>417.0967641903301</v>
       </c>
       <c r="Y31" t="n">
-        <v>700.0944266746548</v>
+        <v>417.0967641903301</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2071.97538618064</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="C32" t="n">
-        <v>1703.012869240228</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D32" t="n">
-        <v>1344.747170633478</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E32" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F32" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U32" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V32" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W32" t="n">
-        <v>2071.97538618064</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X32" t="n">
-        <v>2071.97538618064</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y32" t="n">
-        <v>2071.97538618064</v>
+        <v>1637.436010047667</v>
       </c>
     </row>
     <row r="33">
@@ -6755,31 +6755,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
         <v>398.4535849031479</v>
@@ -6812,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6821,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>657.6489837069648</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C34" t="n">
-        <v>657.6489837069648</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D34" t="n">
-        <v>507.5323442946291</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E34" t="n">
-        <v>359.619250712236</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F34" t="n">
-        <v>212.7293032143257</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G34" t="n">
-        <v>212.7293032143257</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J34" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K34" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L34" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M34" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N34" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O34" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P34" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q34" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R34" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S34" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T34" t="n">
-        <v>885.6385346049822</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U34" t="n">
-        <v>885.6385346049822</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V34" t="n">
-        <v>885.6385346049822</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W34" t="n">
-        <v>885.6385346049822</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X34" t="n">
-        <v>657.6489837069648</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y34" t="n">
-        <v>657.6489837069648</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>921.7704558796265</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C35" t="n">
-        <v>552.8079389392149</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D35" t="n">
-        <v>494.2972677909589</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E35" t="n">
-        <v>108.5090151927147</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F35" t="n">
-        <v>108.5090151927147</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G35" t="n">
         <v>108.5090151927147</v>
@@ -6937,22 +6937,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
         <v>3018.302393296687</v>
@@ -6979,10 +6979,10 @@
         <v>2071.97538618064</v>
       </c>
       <c r="X35" t="n">
-        <v>1698.50962791956</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y35" t="n">
-        <v>1308.370295943748</v>
+        <v>2071.97538618064</v>
       </c>
     </row>
     <row r="36">
@@ -7019,10 +7019,10 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>121.5743897633378</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C37" t="n">
-        <v>121.5743897633378</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D37" t="n">
-        <v>121.5743897633378</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E37" t="n">
-        <v>121.5743897633378</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F37" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G37" t="n">
         <v>66.51211643218343</v>
@@ -7128,19 +7128,19 @@
         <v>920.887005818185</v>
       </c>
       <c r="U37" t="n">
-        <v>631.7841389438286</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V37" t="n">
-        <v>631.7841389438286</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W37" t="n">
-        <v>342.366968906868</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X37" t="n">
-        <v>342.366968906868</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y37" t="n">
-        <v>121.5743897633378</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>921.7704558796265</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="C38" t="n">
-        <v>552.8079389392149</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D38" t="n">
-        <v>406.0926155839475</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E38" t="n">
-        <v>406.0926155839475</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F38" t="n">
-        <v>406.0926155839475</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G38" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X38" t="n">
-        <v>1698.50962791956</v>
+        <v>2055.097896014972</v>
       </c>
       <c r="Y38" t="n">
-        <v>1308.370295943748</v>
+        <v>1664.958564039161</v>
       </c>
     </row>
     <row r="39">
@@ -7229,31 +7229,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7286,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7295,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>66.51211643218343</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C40" t="n">
-        <v>66.51211643218343</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D40" t="n">
-        <v>66.51211643218343</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E40" t="n">
-        <v>66.51211643218343</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K40" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L40" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M40" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N40" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O40" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P40" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q40" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R40" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S40" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T40" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U40" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V40" t="n">
-        <v>666.2025176122982</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W40" t="n">
-        <v>376.7853475753375</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X40" t="n">
-        <v>287.3046955757135</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y40" t="n">
-        <v>66.51211643218343</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2345.167438673965</v>
+        <v>1528.069587875903</v>
       </c>
       <c r="C41" t="n">
-        <v>1976.204921733553</v>
+        <v>1528.069587875903</v>
       </c>
       <c r="D41" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E41" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F41" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V41" t="n">
-        <v>3325.605821609171</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W41" t="n">
-        <v>3325.605821609171</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="X41" t="n">
-        <v>3121.906610713899</v>
+        <v>2304.808759915837</v>
       </c>
       <c r="Y41" t="n">
-        <v>2731.767278738087</v>
+        <v>1914.669427940025</v>
       </c>
     </row>
     <row r="42">
@@ -7466,70 +7466,70 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
         <v>1317.519490266131</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>776.4603107317583</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="C43" t="n">
-        <v>776.4603107317583</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="D43" t="n">
-        <v>626.3436713194226</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="E43" t="n">
-        <v>478.4305777370295</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="F43" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K43" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L43" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M43" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N43" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O43" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P43" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q43" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R43" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S43" t="n">
-        <v>776.4603107317583</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T43" t="n">
-        <v>776.4603107317583</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U43" t="n">
-        <v>776.4603107317583</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V43" t="n">
-        <v>776.4603107317583</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W43" t="n">
-        <v>776.4603107317583</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="X43" t="n">
-        <v>776.4603107317583</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="Y43" t="n">
-        <v>776.4603107317583</v>
+        <v>377.0996507379416</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1232.248790760447</v>
+        <v>1934.181533884357</v>
       </c>
       <c r="C44" t="n">
-        <v>863.2862738200351</v>
+        <v>1565.219016943946</v>
       </c>
       <c r="D44" t="n">
-        <v>863.2862738200351</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="E44" t="n">
-        <v>477.498021221791</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F44" t="n">
-        <v>66.51211643218342</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329465</v>
@@ -7660,40 +7660,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U44" t="n">
-        <v>3066.285263675145</v>
+        <v>3028.849511464819</v>
       </c>
       <c r="V44" t="n">
-        <v>2735.222376331575</v>
+        <v>2697.786624121249</v>
       </c>
       <c r="W44" t="n">
-        <v>2382.45372106146</v>
+        <v>2697.786624121249</v>
       </c>
       <c r="X44" t="n">
-        <v>2008.98796280038</v>
+        <v>2324.320865860169</v>
       </c>
       <c r="Y44" t="n">
-        <v>1618.848630824569</v>
+        <v>1934.181533884357</v>
       </c>
     </row>
     <row r="45">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3036.18865157221</v>
+        <v>508.4085425014813</v>
       </c>
       <c r="C46" t="n">
-        <v>3036.18865157221</v>
+        <v>508.4085425014813</v>
       </c>
       <c r="D46" t="n">
-        <v>2886.072012159875</v>
+        <v>358.2919030891455</v>
       </c>
       <c r="E46" t="n">
-        <v>2738.158918577481</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F46" t="n">
-        <v>2617.448119005312</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G46" t="n">
-        <v>2617.448119005312</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K46" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L46" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M46" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N46" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O46" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P46" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q46" t="n">
-        <v>3325.605821609171</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R46" t="n">
-        <v>3325.605821609171</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S46" t="n">
-        <v>3325.605821609171</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="T46" t="n">
-        <v>3325.605821609171</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="U46" t="n">
-        <v>3325.605821609171</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="V46" t="n">
-        <v>3325.605821609171</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="W46" t="n">
-        <v>3036.18865157221</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="X46" t="n">
-        <v>3036.18865157221</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="Y46" t="n">
-        <v>3036.18865157221</v>
+        <v>508.4085425014813</v>
       </c>
     </row>
   </sheetData>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>301.1145543296394</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22561,16 +22561,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.4631744246258</v>
+        <v>413.2441370602317</v>
       </c>
       <c r="H2" t="n">
-        <v>320.6353766150897</v>
+        <v>318.3921602069877</v>
       </c>
       <c r="I2" t="n">
-        <v>139.5561335235496</v>
+        <v>131.1116955327426</v>
       </c>
       <c r="J2" t="n">
-        <v>24.91528667358037</v>
+        <v>6.324764167328823</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>23.65357118422324</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>100.0310828299331</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>167.1010256612668</v>
+        <v>162.1097117201341</v>
       </c>
       <c r="T2" t="n">
-        <v>122.3782128463251</v>
+        <v>214.0843260727917</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1984878605957</v>
+        <v>104.3348437827357</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>284.6821720040069</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>202.3948476287045</v>
       </c>
       <c r="X2" t="n">
-        <v>277.0661513893668</v>
+        <v>222.8849795897605</v>
       </c>
       <c r="Y2" t="n">
-        <v>293.5729893669514</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22628,28 +22628,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>80.04354969921354</v>
+        <v>25.8623778996072</v>
       </c>
       <c r="D3" t="n">
-        <v>54.78011627553656</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>64.98013116629875</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.3592641379443</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>102.729632124056</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>65.63472101605001</v>
+        <v>61.59970664354544</v>
       </c>
       <c r="J3" t="n">
-        <v>33.84730027516773</v>
+        <v>22.77491242827335</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22670,25 +22670,25 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>14.3427387906227</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>2.950191078938488</v>
+        <v>77.29308816345811</v>
       </c>
       <c r="S3" t="n">
-        <v>153.4011028494393</v>
+        <v>151.2242511465658</v>
       </c>
       <c r="T3" t="n">
-        <v>196.197498299121</v>
+        <v>195.7251189095246</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8766285924705</v>
+        <v>187.5205746877993</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>104.8488620722111</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22719,55 +22719,55 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.1658146852775</v>
+        <v>167.0675620642408</v>
       </c>
       <c r="H4" t="n">
-        <v>154.8907084131551</v>
+        <v>154.0171532915746</v>
       </c>
       <c r="I4" t="n">
-        <v>130.6355227555885</v>
+        <v>127.6807984793224</v>
       </c>
       <c r="J4" t="n">
-        <v>68.65627904547948</v>
+        <v>61.70981873818783</v>
       </c>
       <c r="K4" t="n">
-        <v>33.14412614092828</v>
+        <v>21.72895798776032</v>
       </c>
       <c r="L4" t="n">
-        <v>12.20519387026839</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>9.577470677924651</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1.412844977410202</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>21.823262646183</v>
+        <v>7.935701265474421</v>
       </c>
       <c r="P4" t="n">
-        <v>37.92808757638606</v>
+        <v>26.0448796648253</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.40871249605685</v>
+        <v>74.18139529270552</v>
       </c>
       <c r="R4" t="n">
-        <v>140.1909870721275</v>
+        <v>135.7731919480611</v>
       </c>
       <c r="S4" t="n">
-        <v>209.6362282325312</v>
+        <v>207.923953009556</v>
       </c>
       <c r="T4" t="n">
-        <v>224.4198858246887</v>
+        <v>224.0000791711685</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2740203743174</v>
+        <v>286.2686611404426</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>265.1089392838264</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22789,25 +22789,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>207.8369205319747</v>
       </c>
       <c r="E5" t="n">
-        <v>269.8177099473381</v>
+        <v>258.9130707846564</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>301.2760442195641</v>
+        <v>413.2441370602317</v>
       </c>
       <c r="H5" t="n">
-        <v>207.7600497819524</v>
+        <v>318.3921602069877</v>
       </c>
       <c r="I5" t="n">
-        <v>136.685125759028</v>
+        <v>131.1116955327426</v>
       </c>
       <c r="J5" t="n">
-        <v>18.59473170946464</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,19 +22828,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>12.21596093814616</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>86.27197698880644</v>
       </c>
       <c r="S5" t="n">
-        <v>165.4040387101212</v>
+        <v>162.1097117201341</v>
       </c>
       <c r="T5" t="n">
-        <v>214.717169359623</v>
+        <v>67.23820498408344</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1925302541847</v>
+        <v>104.3348437827359</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22871,22 +22871,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>17.69896472780067</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>46.82714687011948</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>102.3448132540521</v>
+        <v>101.5977720414757</v>
       </c>
       <c r="I6" t="n">
-        <v>64.26286446312977</v>
+        <v>61.59970664354545</v>
       </c>
       <c r="J6" t="n">
-        <v>30.08282103867671</v>
+        <v>22.77491242827338</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.095592888813</v>
+        <v>77.29308816345812</v>
       </c>
       <c r="S6" t="n">
-        <v>152.6609993460486</v>
+        <v>151.2242511465658</v>
       </c>
       <c r="T6" t="n">
-        <v>196.0368949650912</v>
+        <v>195.7251189095246</v>
       </c>
       <c r="U6" t="n">
-        <v>113.7613470855985</v>
+        <v>79.02279728521597</v>
       </c>
       <c r="V6" t="n">
-        <v>120.6879270245016</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>139.5823230359959</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>58.83657468859607</v>
       </c>
     </row>
     <row r="7">
@@ -22956,49 +22956,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.1324099710516</v>
+        <v>167.0675620642408</v>
       </c>
       <c r="H7" t="n">
-        <v>154.5937101357652</v>
+        <v>154.0171532915746</v>
       </c>
       <c r="I7" t="n">
-        <v>126.0055744062474</v>
+        <v>127.6807984793224</v>
       </c>
       <c r="J7" t="n">
-        <v>66.29456574971167</v>
+        <v>61.70981873818785</v>
       </c>
       <c r="K7" t="n">
-        <v>29.26310570632462</v>
+        <v>21.72895798776034</v>
       </c>
       <c r="L7" t="n">
-        <v>7.238823902544752</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>4.341129883412066</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>17.10165812996878</v>
+        <v>7.935701265474449</v>
       </c>
       <c r="P7" t="n">
-        <v>33.88793923037925</v>
+        <v>26.04487966482533</v>
       </c>
       <c r="Q7" t="n">
-        <v>79.61152319847201</v>
+        <v>74.18139529270553</v>
       </c>
       <c r="R7" t="n">
-        <v>138.6889896488451</v>
+        <v>135.7731919480611</v>
       </c>
       <c r="S7" t="n">
-        <v>209.0540751673406</v>
+        <v>207.923953009556</v>
       </c>
       <c r="T7" t="n">
-        <v>224.2771565911783</v>
+        <v>224.0000791711685</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2721982989959</v>
+        <v>264.8546020876781</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23020,31 +23020,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>238.0586849924383</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>315.0685290702448</v>
+        <v>167.1574544543629</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059417</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>241.7035085656167</v>
       </c>
       <c r="G8" t="n">
-        <v>413.2531730278943</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H8" t="n">
-        <v>318.4846998108122</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>131.4600546760548</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
-        <v>7.091680627731961</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>77.08171901666373</v>
       </c>
       <c r="S8" t="n">
-        <v>162.3156188332455</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>214.1238810212347</v>
+        <v>25.91829388988671</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1816877488572</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23086,10 +23086,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>225.0559440074267</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.5627819850113</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,10 +23099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>13.64739640325126</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23114,16 +23114,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.2469034849667</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>101.6444647650348</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>61.76616344642424</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J9" t="n">
-        <v>23.23168261818574</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>77.59326173053483</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S9" t="n">
-        <v>151.3140530013673</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>195.7446060180399</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U9" t="n">
-        <v>81.19407977320594</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V9" t="n">
-        <v>88.12543047838298</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>107.0198264898773</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>78.34310720762346</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.07161528826</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>154.0531901378539</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>127.8026899798254</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>61.99638167634127</v>
+        <v>57.06999962825414</v>
       </c>
       <c r="K10" t="n">
-        <v>22.19986892380261</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23217,31 +23217,31 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>8.508606056834793</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>26.53509868619516</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q10" t="n">
-        <v>74.52079753307214</v>
+        <v>68.68604055159722</v>
       </c>
       <c r="R10" t="n">
-        <v>135.9554396389582</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>188.4017710149106</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>224.0173974919776</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2688822253891</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>234.3070520821564</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>195.2082544971606</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>216.7578328961673</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>219.3504585753915</v>
+        <v>320.8996812621418</v>
       </c>
       <c r="G11" t="n">
-        <v>413.097833230058</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>316.8938261062223</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>213.4438810562068</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1692605650303</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>198.7123514897336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23336,31 +23336,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>195.4095977920013</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>60.69123123399629</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>45.27499998310532</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>64.16939599459965</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>18.15710861098441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23421,28 +23421,28 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>21.95313171484396</v>
       </c>
       <c r="F13" t="n">
-        <v>93.20510176849682</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.0019352027142</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>153.4336708318196</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>125.7072197708667</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
-        <v>57.06999962825418</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>14.10430989402852</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,28 +23457,28 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>18.10760906709386</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>68.68604055159726</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>132.8223696106904</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>206.7802557954962</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>223.7196734901001</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2650814934503</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>195.2082544971607</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>345.5834682595418</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>219.3504585753916</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>247.9252960539635</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>316.8938261062223</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>213.4438810562068</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1692605650303</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>198.7123514897337</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23573,31 +23573,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>195.4095977920013</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8637684100909</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>45.27499998310543</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>64.16939599459977</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>40.60044802738295</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>18.15710861098452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>115.0308748441934</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,22 +23664,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>18.72440938767556</v>
       </c>
       <c r="G16" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>125.7072197708667</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
-        <v>57.06999962825418</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>14.10430989402852</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,22 +23694,22 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>18.10760906709386</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>68.68604055159726</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>132.8223696106904</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>206.7802557954962</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>223.7196734901001</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23740,19 +23740,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>243.7637707342585</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>106.0018201581684</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23898,13 +23898,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>162.15844322668</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23940,22 +23940,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>137.7769457025058</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23971,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>329.8999240691987</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>181.1251564493167</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>139.6801120971369</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>38.35055233202189</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>264.8700839405205</v>
+        <v>377.085211642718</v>
       </c>
     </row>
     <row r="24">
@@ -24381,7 +24381,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24417,10 +24417,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>184.6529627750985</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>100.4001306773534</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24429,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24448,22 +24448,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>29.30057913856092</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>110.4600290656292</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,10 +24499,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24603,22 +24603,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>20.27418398259557</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24654,16 +24654,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>147.4609218293966</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>249.848249080512</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -24739,16 +24739,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>362.4922186725344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>30.61313731386747</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24888,7 +24888,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -24900,13 +24900,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>203.2493398454936</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>270.4601319683917</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>121.8570868232605</v>
       </c>
     </row>
     <row r="33">
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25089,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25128,7 +25128,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>184.6529627750984</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -25140,10 +25140,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>146.4966259053222</v>
       </c>
     </row>
     <row r="35">
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>358.586209244552</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>296.7574771839096</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -25219,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351646</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>90.90939742508837</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25368,19 +25368,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25393,25 +25393,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>209.4348714989682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>353.0223854144596</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25551,19 +25551,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25608,16 +25608,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>137.1238099094094</v>
+        <v>153.6216279422646</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25630,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>107.4692863588273</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>168.0688818921491</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>3.965197319258863</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>135.7187498659269</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>198.1857897438367</v>
+        <v>66.39418670416947</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26031,16 +26031,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>2.993021879107943</v>
       </c>
       <c r="F46" t="n">
-        <v>25.91735644648351</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26073,7 +26073,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -26085,13 +26085,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>362616.6230072703</v>
+        <v>409992.2446053785</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>379382.0342027748</v>
+        <v>409992.2446053785</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>408111.9599248166</v>
+        <v>441595.0580613401</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>441595.0580613401</v>
+        <v>871958.5900271862</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>441595.05806134</v>
+        <v>871958.5900271862</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>871958.5900271862</v>
+        <v>871958.5900271866</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>871958.5900271861</v>
+        <v>871958.5900271862</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>871958.5900271867</v>
+        <v>871958.5900271864</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>871958.5900271864</v>
+        <v>871958.5900271866</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>871958.5900271864</v>
+        <v>871958.5900271862</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>871958.5900271862</v>
+        <v>871958.5900271864</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>116310.9922853508</v>
+        <v>131506.9463828572</v>
       </c>
       <c r="C2" t="n">
-        <v>121688.5770084371</v>
+        <v>131506.9463828572</v>
       </c>
       <c r="D2" t="n">
-        <v>130903.8362022996</v>
+        <v>141643.6978687317</v>
       </c>
       <c r="E2" t="n">
-        <v>141643.6978687317</v>
+        <v>279684.8307634371</v>
       </c>
       <c r="F2" t="n">
-        <v>141643.6978687317</v>
+        <v>279684.830763437</v>
       </c>
       <c r="G2" t="n">
+        <v>279684.830763437</v>
+      </c>
+      <c r="H2" t="n">
         <v>279684.8307634371</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>279684.830763437</v>
-      </c>
-      <c r="I2" t="n">
-        <v>279684.8307634371</v>
       </c>
       <c r="J2" t="n">
         <v>279684.830763437</v>
@@ -26346,10 +26346,10 @@
         <v>279684.8307634371</v>
       </c>
       <c r="M2" t="n">
-        <v>279684.8307634371</v>
+        <v>279684.830763437</v>
       </c>
       <c r="N2" t="n">
-        <v>279684.8307634371</v>
+        <v>279684.830763437</v>
       </c>
       <c r="O2" t="n">
         <v>279684.8307634369</v>
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>471995.0992489056</v>
+        <v>542655.4349751303</v>
       </c>
       <c r="C3" t="n">
-        <v>23151.37050443034</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>38987.52889819869</v>
+        <v>43803.80384074507</v>
       </c>
       <c r="E3" t="n">
-        <v>43838.31016216653</v>
+        <v>627134.6436336674</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>597335.6860090869</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>24245.2279917978</v>
+        <v>38421.40650613405</v>
       </c>
       <c r="K3" t="n">
-        <v>5005.218442393711</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>8241.274813353784</v>
+        <v>10295.60674904876</v>
       </c>
       <c r="M3" t="n">
-        <v>10678.49868114517</v>
+        <v>160456.4418678774</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>154949.3715668551</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.14558386063672</v>
+        <v>107.1921479602627</v>
       </c>
       <c r="C4" t="n">
-        <v>81.37067654131212</v>
+        <v>107.1921479602626</v>
       </c>
       <c r="D4" t="n">
-        <v>105.5521581027501</v>
+        <v>137.8001180723342</v>
       </c>
       <c r="E4" t="n">
-        <v>137.800118072334</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="F4" t="n">
-        <v>137.800118072334</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="G4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.646989006123</v>
       </c>
       <c r="H4" t="n">
         <v>584.6469890061231</v>
@@ -26469,46 +26469,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>49237.11966583622</v>
+        <v>53719.11977902089</v>
       </c>
       <c r="C5" t="n">
-        <v>50823.37311172271</v>
+        <v>53719.11977902088</v>
       </c>
       <c r="D5" t="n">
-        <v>53538.12534878444</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="E5" t="n">
-        <v>23358.20041161357</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="F5" t="n">
-        <v>23358.20041161356</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="G5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="I5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="K5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="L5" t="n">
         <v>74306.34056139328</v>
-      </c>
-      <c r="K5" t="n">
-        <v>74306.34056139328</v>
-      </c>
-      <c r="L5" t="n">
-        <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-404988.3722132517</v>
+        <v>-477765.142037458</v>
       </c>
       <c r="C6" t="n">
-        <v>47632.46271574273</v>
+        <v>64890.2929376723</v>
       </c>
       <c r="D6" t="n">
-        <v>38272.62979721372</v>
+        <v>28522.2314792661</v>
       </c>
       <c r="E6" t="n">
-        <v>74309.38717687927</v>
+        <v>-426414.7957987993</v>
       </c>
       <c r="F6" t="n">
-        <v>118147.6973390458</v>
+        <v>200719.8478348679</v>
       </c>
       <c r="G6" t="n">
-        <v>-392541.8427960492</v>
+        <v>200719.8478348679</v>
       </c>
       <c r="H6" t="n">
-        <v>204793.8432130376</v>
+        <v>200719.847834868</v>
       </c>
       <c r="I6" t="n">
-        <v>204793.8432130377</v>
+        <v>200719.847834868</v>
       </c>
       <c r="J6" t="n">
-        <v>180548.6152212399</v>
+        <v>162298.4413287339</v>
       </c>
       <c r="K6" t="n">
-        <v>199788.6247706438</v>
+        <v>200719.847834868</v>
       </c>
       <c r="L6" t="n">
-        <v>196552.5683996839</v>
+        <v>190424.2410858193</v>
       </c>
       <c r="M6" t="n">
-        <v>194115.3445318925</v>
+        <v>40263.40596699055</v>
       </c>
       <c r="N6" t="n">
-        <v>204793.8432130377</v>
+        <v>200719.8478348679</v>
       </c>
       <c r="O6" t="n">
-        <v>49844.47164618237</v>
+        <v>200719.8478348679</v>
       </c>
       <c r="P6" t="n">
-        <v>204793.8432130376</v>
+        <v>200719.8478348681</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>457.5913187641655</v>
+        <v>512.0768631572207</v>
       </c>
       <c r="C3" t="n">
-        <v>476.1157511985022</v>
+        <v>512.0768631572206</v>
       </c>
       <c r="D3" t="n">
-        <v>509.8291662011503</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="E3" t="n">
-        <v>548.4699409129046</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>548.4699409129046</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92.6649492891022</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="C4" t="n">
-        <v>112.1126601249237</v>
+        <v>146.8461210887083</v>
       </c>
       <c r="D4" t="n">
-        <v>144.6751566710423</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="E4" t="n">
-        <v>187.52558716632</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
-        <v>187.5255871663198</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="H4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="I4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="K4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="I4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="K4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="L4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="O4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="P4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="O4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="P4" t="n">
-        <v>831.4014554022928</v>
       </c>
     </row>
   </sheetData>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>457.5913187641655</v>
+        <v>512.0768631572207</v>
       </c>
       <c r="C3" t="n">
-        <v>18.52443243433669</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>33.71341500264811</v>
+        <v>36.3930777556842</v>
       </c>
       <c r="E3" t="n">
-        <v>38.64077471175426</v>
+        <v>541.3067596803935</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>541.3067596803937</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92.6649492891022</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="C4" t="n">
-        <v>19.44771083582151</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>32.56249654611858</v>
+        <v>40.67946607761178</v>
       </c>
       <c r="E4" t="n">
-        <v>42.85043049527766</v>
+        <v>643.8758682359725</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>643.8758682359727</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,22 +27035,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>92.66494928910197</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="K4" t="n">
-        <v>19.44771083582151</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>32.56249654611892</v>
+        <v>40.67946607761144</v>
       </c>
       <c r="M4" t="n">
-        <v>42.85043049527766</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>643.8758682359727</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>92.6649492891022</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="K4" t="n">
-        <v>19.44771083582151</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>32.56249654611858</v>
+        <v>40.67946607761178</v>
       </c>
       <c r="M4" t="n">
-        <v>42.85043049527766</v>
+        <v>643.8758682359725</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>643.8758682359727</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.839563090509207</v>
+        <v>2.058600454903398</v>
       </c>
       <c r="H2" t="n">
-        <v>18.83942550067742</v>
+        <v>21.08264190877943</v>
       </c>
       <c r="I2" t="n">
-        <v>70.91975604685626</v>
+        <v>79.36419403766334</v>
       </c>
       <c r="J2" t="n">
-        <v>156.1306178531059</v>
+        <v>174.7211403593575</v>
       </c>
       <c r="K2" t="n">
-        <v>233.9993234743607</v>
+        <v>261.8616976154183</v>
       </c>
       <c r="L2" t="n">
-        <v>290.2968524055319</v>
+        <v>324.8625912871683</v>
       </c>
       <c r="M2" t="n">
-        <v>323.011182516375</v>
+        <v>361.4722271270566</v>
       </c>
       <c r="N2" t="n">
-        <v>322.0780128856931</v>
+        <v>367.3212256695509</v>
       </c>
       <c r="O2" t="n">
-        <v>309.9456856660333</v>
+        <v>346.8510173961052</v>
       </c>
       <c r="P2" t="n">
-        <v>264.5314718690873</v>
+        <v>296.0293186656775</v>
       </c>
       <c r="Q2" t="n">
-        <v>198.6521186902262</v>
+        <v>222.3056898744495</v>
       </c>
       <c r="R2" t="n">
-        <v>115.5544549841991</v>
+        <v>129.3135608253257</v>
       </c>
       <c r="S2" t="n">
-        <v>41.91904392497859</v>
+        <v>46.91035786611123</v>
       </c>
       <c r="T2" t="n">
-        <v>8.052687428704056</v>
+        <v>9.011523491339631</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1471650472407365</v>
+        <v>0.1646880363922718</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9842530252663183</v>
+        <v>1.101448347168362</v>
       </c>
       <c r="H3" t="n">
-        <v>9.505812112440497</v>
+        <v>10.63767219502076</v>
       </c>
       <c r="I3" t="n">
-        <v>33.88765898395</v>
+        <v>37.92267335645456</v>
       </c>
       <c r="J3" t="n">
-        <v>92.99032639149897</v>
+        <v>104.0627142383933</v>
       </c>
       <c r="K3" t="n">
-        <v>158.9352790843423</v>
+        <v>177.8597534986735</v>
       </c>
       <c r="L3" t="n">
-        <v>213.7080965605662</v>
+        <v>239.1543878358322</v>
       </c>
       <c r="M3" t="n">
-        <v>234.7989832111205</v>
+        <v>279.0818904206852</v>
       </c>
       <c r="N3" t="n">
-        <v>224.0066613724355</v>
+        <v>278.1878331720418</v>
       </c>
       <c r="O3" t="n">
-        <v>227.9345477768583</v>
+        <v>262.0625810914128</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>170.929937097644</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.6390352953988</v>
+        <v>140.5989153332807</v>
       </c>
       <c r="R3" t="n">
-        <v>61.11002555118424</v>
+        <v>68.38641580050584</v>
       </c>
       <c r="S3" t="n">
-        <v>18.28206825439849</v>
+        <v>20.45891995727197</v>
       </c>
       <c r="T3" t="n">
-        <v>3.967230395700641</v>
+        <v>4.439609785297034</v>
       </c>
       <c r="U3" t="n">
-        <v>0.06475348850436308</v>
+        <v>0.07246370705055014</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8251646731812819</v>
+        <v>0.9234172942179388</v>
       </c>
       <c r="H4" t="n">
-        <v>7.336464094284494</v>
+        <v>8.210019215864953</v>
       </c>
       <c r="I4" t="n">
-        <v>24.81495217166983</v>
+        <v>27.76967644793584</v>
       </c>
       <c r="J4" t="n">
-        <v>58.33914239391663</v>
+        <v>65.28560270120828</v>
       </c>
       <c r="K4" t="n">
-        <v>95.8691320296071</v>
+        <v>107.2843001827751</v>
       </c>
       <c r="L4" t="n">
-        <v>122.6794824109699</v>
+        <v>137.2869675421834</v>
       </c>
       <c r="M4" t="n">
-        <v>129.3483132696804</v>
+        <v>144.7498582199993</v>
       </c>
       <c r="N4" t="n">
-        <v>126.272699487823</v>
+        <v>141.3080301233689</v>
       </c>
       <c r="O4" t="n">
-        <v>116.6332758056598</v>
+        <v>130.5208371863684</v>
       </c>
       <c r="P4" t="n">
-        <v>99.79991647276155</v>
+        <v>111.6831243843223</v>
       </c>
       <c r="Q4" t="n">
-        <v>69.09628913338899</v>
+        <v>77.32360633674033</v>
       </c>
       <c r="R4" t="n">
-        <v>37.102404305042</v>
+        <v>41.52019942910841</v>
       </c>
       <c r="S4" t="n">
-        <v>14.38036980444106</v>
+        <v>16.09264502741626</v>
       </c>
       <c r="T4" t="n">
-        <v>3.52570360359275</v>
+        <v>3.945510257113011</v>
       </c>
       <c r="U4" t="n">
-        <v>0.04500898217352452</v>
+        <v>0.05036821604825127</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.914033170647244</v>
+        <v>2.058600454903398</v>
       </c>
       <c r="H5" t="n">
-        <v>19.60209220889109</v>
+        <v>21.08264190877943</v>
       </c>
       <c r="I5" t="n">
-        <v>73.79076381137793</v>
+        <v>79.36419403766332</v>
       </c>
       <c r="J5" t="n">
-        <v>162.4511728172216</v>
+        <v>174.7211403593574</v>
       </c>
       <c r="K5" t="n">
-        <v>243.4721969307195</v>
+        <v>261.8616976154183</v>
       </c>
       <c r="L5" t="n">
-        <v>302.0487895769152</v>
+        <v>324.8625912871682</v>
       </c>
       <c r="M5" t="n">
-        <v>336.087476975413</v>
+        <v>361.4722271270565</v>
       </c>
       <c r="N5" t="n">
-        <v>341.5257237215146</v>
+        <v>367.3212256695508</v>
       </c>
       <c r="O5" t="n">
-        <v>322.493056380891</v>
+        <v>346.8510173961051</v>
       </c>
       <c r="P5" t="n">
-        <v>275.2403624805372</v>
+        <v>296.0293186656775</v>
       </c>
       <c r="Q5" t="n">
-        <v>206.6940495567327</v>
+        <v>222.3056898744495</v>
       </c>
       <c r="R5" t="n">
-        <v>120.23238615567</v>
+        <v>129.3135608253257</v>
       </c>
       <c r="S5" t="n">
-        <v>43.61603087612411</v>
+        <v>46.91035786611123</v>
       </c>
       <c r="T5" t="n">
-        <v>8.378680204508314</v>
+        <v>9.011523491339629</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1531226536517795</v>
+        <v>0.1646880363922718</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.024098030879797</v>
+        <v>1.101448347168361</v>
       </c>
       <c r="H6" t="n">
-        <v>9.890630982444359</v>
+        <v>10.63767219502075</v>
       </c>
       <c r="I6" t="n">
-        <v>35.25951553687022</v>
+        <v>37.92267335645455</v>
       </c>
       <c r="J6" t="n">
-        <v>96.75480562798998</v>
+        <v>104.0627142383933</v>
       </c>
       <c r="K6" t="n">
-        <v>165.3693736969364</v>
+        <v>177.8597534986735</v>
       </c>
       <c r="L6" t="n">
-        <v>222.3595307837911</v>
+        <v>239.1543878358322</v>
       </c>
       <c r="M6" t="n">
-        <v>254.246694046942</v>
+        <v>279.0818904206852</v>
       </c>
       <c r="N6" t="n">
-        <v>243.454372208257</v>
+        <v>278.1878331720416</v>
       </c>
       <c r="O6" t="n">
-        <v>189.3752746148964</v>
+        <v>262.0625810914127</v>
       </c>
       <c r="P6" t="n">
-        <v>195.5578073177395</v>
+        <v>170.9299370976436</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.7252153102001</v>
+        <v>140.5989153332807</v>
       </c>
       <c r="R6" t="n">
-        <v>63.58391107515094</v>
+        <v>68.38641580050583</v>
       </c>
       <c r="S6" t="n">
-        <v>19.0221717577892</v>
+        <v>20.45891995727196</v>
       </c>
       <c r="T6" t="n">
-        <v>4.127833729730409</v>
+        <v>4.439609785297034</v>
       </c>
       <c r="U6" t="n">
-        <v>0.06737487045261827</v>
+        <v>0.07246370705055012</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8585693874071351</v>
+        <v>0.9234172942179387</v>
       </c>
       <c r="H7" t="n">
-        <v>7.633462371674351</v>
+        <v>8.210019215864952</v>
       </c>
       <c r="I7" t="n">
-        <v>25.8195230322073</v>
+        <v>27.76967644793584</v>
       </c>
       <c r="J7" t="n">
-        <v>60.70085568968445</v>
+        <v>65.28560270120826</v>
       </c>
       <c r="K7" t="n">
-        <v>99.75015246421076</v>
+        <v>107.284300182775</v>
       </c>
       <c r="L7" t="n">
-        <v>127.6458523786935</v>
+        <v>137.2869675421834</v>
       </c>
       <c r="M7" t="n">
-        <v>134.584654064193</v>
+        <v>144.7498582199992</v>
       </c>
       <c r="N7" t="n">
-        <v>131.3845318020392</v>
+        <v>141.3080301233688</v>
       </c>
       <c r="O7" t="n">
-        <v>121.354880321874</v>
+        <v>130.5208371863683</v>
       </c>
       <c r="P7" t="n">
-        <v>103.8400648187684</v>
+        <v>111.6831243843223</v>
       </c>
       <c r="Q7" t="n">
-        <v>71.89347843097383</v>
+        <v>77.32360633674031</v>
       </c>
       <c r="R7" t="n">
-        <v>38.60440172832445</v>
+        <v>41.52019942910839</v>
       </c>
       <c r="S7" t="n">
-        <v>14.96252286963161</v>
+        <v>16.09264502741625</v>
       </c>
       <c r="T7" t="n">
-        <v>3.668432837103212</v>
+        <v>3.94551025711301</v>
       </c>
       <c r="U7" t="n">
-        <v>0.04683105749493469</v>
+        <v>0.05036821604825126</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.049564487240804</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>20.99010230495489</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I8" t="n">
-        <v>79.01583489435116</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J8" t="n">
-        <v>173.9542238989543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K8" t="n">
-        <v>260.7122886438576</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L8" t="n">
-        <v>323.4366478202534</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M8" t="n">
-        <v>359.8855902702221</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N8" t="n">
-        <v>365.708915369595</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O8" t="n">
-        <v>345.3285584995942</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P8" t="n">
-        <v>294.7299352208368</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q8" t="n">
-        <v>221.3299070215255</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R8" t="n">
-        <v>128.7459552216403</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S8" t="n">
-        <v>46.70445075299986</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T8" t="n">
-        <v>8.971968542896622</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1639651589792643</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.096613678243984</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H9" t="n">
-        <v>10.59097947146163</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>37.75621655357576</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J9" t="n">
-        <v>103.6059440484809</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>177.0790604908279</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
-        <v>238.1046497432826</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M9" t="n">
-        <v>277.8568955796269</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N9" t="n">
-        <v>276.0168687543756</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O9" t="n">
-        <v>220.8347924053682</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P9" t="n">
-        <v>209.4051154534499</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>68.08624223342912</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S9" t="n">
-        <v>20.36911810247047</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T9" t="n">
-        <v>4.42012267678167</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07214563672657791</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9193640701987955</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H10" t="n">
-        <v>8.17398236958566</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I10" t="n">
-        <v>27.64778494743288</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J10" t="n">
-        <v>64.99903976305484</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K10" t="n">
-        <v>106.8133892467328</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L10" t="n">
-        <v>136.68436367301</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>144.114496931253</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N10" t="n">
-        <v>140.6877763059667</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>129.947932395008</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P10" t="n">
-        <v>111.1929053629525</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>76.9842040963737</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R10" t="n">
-        <v>41.33795173821129</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S10" t="n">
-        <v>16.02200838700991</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>3.928191936303944</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05014713110175254</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.204904285077002</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>22.58097600954485</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>85.00457245043118</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>187.1384950655543</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>280.4720934528639</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>347.9504329672893</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>387.1618995470274</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>393.4265838470024</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>371.501566862268</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>317.0679923244294</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>238.1048576151092</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>138.5038187974683</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>50.24425639619223</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>9.651968507924579</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.179727797435304</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>11.39368688575676</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>40.6178210959085</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>111.4584056340083</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>190.5001680621737</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>256.1509851405032</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>298.9161177975329</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>306.8275379829654</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>280.6872536292673</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>225.2762668628872</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>150.5912184936715</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>73.24660833550075</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>21.9129264128882</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>4.755130902820369</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9890441557445819</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>8.793501675620016</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>29.74325515639162</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>69.92542181114193</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>114.9089482765069</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>147.0438920276991</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>155.0371670682166</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>151.3507297604415</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>139.7968957592433</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>119.6203949820538</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.81896107784858</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>44.4710217664791</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>17.23634224147603</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>4.225915938181394</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.204904285077002</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>22.58097600954485</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>85.00457245043118</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>187.1384950655543</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>280.4720934528639</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>347.9504329672893</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>387.1618995470274</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>393.4265838470024</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>371.501566862268</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>317.0679923244294</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>238.1048576151092</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>138.5038187974683</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>50.24425639619223</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>9.651968507924579</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.179727797435304</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>11.39368688575676</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>40.6178210959085</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>111.4584056340083</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>190.5001680621737</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>256.1509851405032</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>298.9161177975329</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>306.8275379829654</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>280.6872536292673</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>225.2762668628872</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>150.5912184936715</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>73.24660833550075</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>21.9129264128882</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>4.755130902820369</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9890441557445819</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>8.793501675620016</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>29.74325515639162</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
-        <v>69.92542181114193</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>114.9089482765069</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>147.0438920276991</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>155.0371670682166</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>151.3507297604415</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>139.7968957592433</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>119.6203949820538</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>82.81896107784858</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>44.4710217664791</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>17.23634224147603</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>4.225915938181394</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32259,7 +32259,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356356</v>
       </c>
       <c r="S17" t="n">
         <v>99.83230779806951</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33739,7 +33739,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>13.90947242938014</v>
+        <v>41.77184657043779</v>
       </c>
       <c r="L2" t="n">
-        <v>54.53043743554463</v>
+        <v>89.09617631718106</v>
       </c>
       <c r="M2" t="n">
-        <v>92.6649492891022</v>
+        <v>131.1259938997839</v>
       </c>
       <c r="N2" t="n">
-        <v>92.6649492891022</v>
+        <v>137.90816207296</v>
       </c>
       <c r="O2" t="n">
-        <v>79.84747424434661</v>
+        <v>116.7528059744185</v>
       </c>
       <c r="P2" t="n">
-        <v>33.29847611381774</v>
+        <v>64.79632291040798</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>21.09384010998329</v>
+        <v>40.01831452431455</v>
       </c>
       <c r="L3" t="n">
-        <v>75.15371678069201</v>
+        <v>100.600008055958</v>
       </c>
       <c r="M3" t="n">
-        <v>92.6649492891022</v>
+        <v>136.9478564986669</v>
       </c>
       <c r="N3" t="n">
-        <v>92.6649492891022</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="O3" t="n">
-        <v>85.33830333241384</v>
+        <v>119.4663366469683</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>36.95552968331378</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>0.617141247259184</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,13 +34862,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>2.402291260945134</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>5.824074272394199</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>13.62248565813567</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>23.38234588573897</v>
+        <v>41.77184657043773</v>
       </c>
       <c r="L5" t="n">
-        <v>66.28237460692793</v>
+        <v>89.096176317181</v>
       </c>
       <c r="M5" t="n">
-        <v>105.7412437481403</v>
+        <v>131.1259938997838</v>
       </c>
       <c r="N5" t="n">
-        <v>112.1126601249237</v>
+        <v>137.9081620729599</v>
       </c>
       <c r="O5" t="n">
-        <v>92.39484495920428</v>
+        <v>116.7528059744184</v>
       </c>
       <c r="P5" t="n">
-        <v>44.00736672526762</v>
+        <v>64.79632291040792</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>27.52793472257738</v>
+        <v>40.01831452431452</v>
       </c>
       <c r="L6" t="n">
-        <v>83.8051510039169</v>
+        <v>100.600008055958</v>
       </c>
       <c r="M6" t="n">
-        <v>112.1126601249237</v>
+        <v>136.9478564986669</v>
       </c>
       <c r="N6" t="n">
-        <v>112.1126601249237</v>
+        <v>146.8461210887083</v>
       </c>
       <c r="O6" t="n">
-        <v>46.77903017045198</v>
+        <v>119.4663366469683</v>
       </c>
       <c r="P6" t="n">
-        <v>61.58339990340929</v>
+        <v>36.95552968331332</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>0.6171412472591555</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,13 +35099,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>2.402291260945105</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>5.824074272394171</v>
       </c>
       <c r="N7" t="n">
-        <v>3.698987336806027</v>
+        <v>13.62248565813564</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K8" t="n">
-        <v>40.62243759887707</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L8" t="n">
-        <v>87.67023285026619</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M8" t="n">
-        <v>129.5393570429493</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N8" t="n">
-        <v>136.2958517730041</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O8" t="n">
-        <v>115.2303470779075</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P8" t="n">
-        <v>63.49693946556727</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>39.23762151646886</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L9" t="n">
-        <v>99.55026996340837</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M9" t="n">
-        <v>135.7228616576086</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N9" t="n">
-        <v>144.6751566710423</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O9" t="n">
-        <v>78.23854796092378</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P9" t="n">
-        <v>75.43070803911962</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,16 +35336,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1.799687391771755</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M10" t="n">
-        <v>5.188712983647946</v>
+        <v>16.11138312061158</v>
       </c>
       <c r="N10" t="n">
-        <v>13.00223184073349</v>
+        <v>23.66518529520832</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>6.092590538868052</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>60.38224240788333</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>112.184017997302</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>156.8156663197546</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>164.0135202504115</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>141.4033554405812</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>85.8349965691599</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>15.79916774065975</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>52.65872908781469</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>117.596605360629</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>156.7820838755146</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>175.4858258996321</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>138.0910091848229</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>91.30185944855694</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>10.60944440764996</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L13" t="n">
-        <v>12.15921574646077</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M13" t="n">
-        <v>16.11138312061152</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N13" t="n">
-        <v>23.66518529520826</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O13" t="n">
-        <v>1.340357307400524</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>6.092590538868052</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>60.38224240788333</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>112.184017997302</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>156.8156663197546</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>164.0135202504115</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>141.4033554405812</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>85.8349965691599</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>15.79916774065975</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>52.65872908781469</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>117.596605360629</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>156.7820838755146</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>175.4858258996321</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>138.0910091848229</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>91.30185944855694</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>10.60944440764996</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L16" t="n">
-        <v>12.15921574646077</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M16" t="n">
-        <v>16.11138312061152</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N16" t="n">
-        <v>23.66518529520826</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O16" t="n">
-        <v>1.340357307400524</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222388</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_25_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_25_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>284268.3475264952</v>
+        <v>339099.2129754184</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8666268.959347745</v>
+        <v>9584464.643054396</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8778504.334061949</v>
+        <v>8343623.815691861</v>
       </c>
     </row>
     <row r="11">
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>86.27197698880641</v>
+        <v>81.61928733384123</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="U2" t="n">
-        <v>146.8461210887085</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="V2" t="n">
-        <v>43.07008646612802</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="W2" t="n">
-        <v>146.8461210887085</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>146.8461210887085</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>146.8461210887085</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -752,16 +752,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.2420688160423</v>
+        <v>47.7719870586735</v>
       </c>
       <c r="H3" t="n">
-        <v>101.5977720414757</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>33.84730027516773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="U3" t="n">
-        <v>38.34834368612493</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="W3" t="n">
-        <v>146.8461210887085</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>21.41405905276465</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>98.74883103803279</v>
       </c>
       <c r="D5" t="n">
-        <v>146.8461210887083</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>123.0172992876054</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.324764167328851</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="T5" t="n">
-        <v>146.8461210887083</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="U5" t="n">
-        <v>146.8461210887083</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -980,16 +980,16 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="E6" t="n">
-        <v>139.9461157276003</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>89.49227226221136</v>
       </c>
       <c r="G6" t="n">
-        <v>136.2420688160423</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>9.256558775821418</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>146.8461210887083</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>146.8461210887083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>21.41405905276456</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>3.625377488803587</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1138,13 +1138,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>187.5255871663201</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="E8" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>165.1725371760947</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>0.9757828529239987</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>126.45409514293</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
     </row>
     <row r="9">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>152.8857872466161</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265835</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,10 +1262,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>149.7702446909496</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>127.429877995854</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>19.59281863505174</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>52.21594625443466</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1378,19 +1378,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>85.97636447956961</v>
+        <v>53.69812815457199</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1451,7 +1451,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851095</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1517,7 +1517,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>68.32994250626331</v>
       </c>
     </row>
     <row r="13">
@@ -1533,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>124.4808309317252</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>22.82561491403706</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>19.68942351146577</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>130.8133087092505</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>103.4663185331317</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1697,16 +1697,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>36.29946757904886</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>31.66886087721433</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>2.877050619971424</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1767,22 +1767,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>126.6966386352557</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>9.854692234071402</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>304.919905495285</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>41.35684107511781</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1940,7 +1940,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851095</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
         <v>18.81721868247742</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>3.867365032348236</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>131.3972404049041</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2083,13 +2083,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>336.5720236022901</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>168.1158122680963</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2244,16 +2244,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>127.6752559270063</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>185.8117075282594</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2329,16 +2329,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>345.0555932653302</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>9.152727013335593</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2490,7 +2490,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="U25" t="n">
-        <v>185.8117075282594</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>37.38391946072413</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2572,10 +2572,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>184.1477353216912</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,10 +2611,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2721,13 +2721,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>164.9988490762009</v>
       </c>
       <c r="T28" t="n">
-        <v>72.08802744677259</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2803,16 +2803,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>44.75951530680847</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>361.3955684249542</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>83.27365849109736</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>185.8117075282594</v>
       </c>
     </row>
     <row r="32">
@@ -3031,13 +3031,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3046,7 +3046,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>141.419451033963</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3091,13 +3091,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>264.380851832793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3201,7 +3201,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>100.2063103874223</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>72.08802744677259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>24.14763241892861</v>
+        <v>171.5447106975647</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3331,10 +3331,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>72.0880274467727</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3517,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>230.2235949393994</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,19 +3556,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>16.70871526400947</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3663,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3717,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>248.1724460045691</v>
       </c>
       <c r="X40" t="n">
-        <v>72.08802744677259</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>247.2137552618556</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>328.371230309406</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>141.4558507036724</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>204.7158181704328</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>207.100555673503</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3988,16 +3988,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,16 +4033,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>184.6009852547325</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4137,19 +4137,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>143.4409407674612</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>72.08802744677315</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11.74768968709668</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="C2" t="n">
-        <v>11.74768968709668</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D2" t="n">
-        <v>11.74768968709668</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E2" t="n">
-        <v>11.74768968709668</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F2" t="n">
-        <v>11.74768968709668</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G2" t="n">
-        <v>11.74768968709668</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H2" t="n">
-        <v>11.74768968709668</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I2" t="n">
-        <v>11.74768968709668</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J2" t="n">
-        <v>11.74768968709668</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K2" t="n">
-        <v>53.10181779183017</v>
+        <v>21.18357364821451</v>
       </c>
       <c r="L2" t="n">
-        <v>141.3070323458394</v>
+        <v>75.16870670940369</v>
       </c>
       <c r="M2" t="n">
-        <v>271.1217663066257</v>
+        <v>166.9070065056149</v>
       </c>
       <c r="N2" t="n">
-        <v>407.650846758856</v>
+        <v>258.6453063018261</v>
       </c>
       <c r="O2" t="n">
-        <v>523.2361246735303</v>
+        <v>337.6943058037292</v>
       </c>
       <c r="P2" t="n">
-        <v>587.3844843548342</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="Q2" t="n">
-        <v>587.3844843548342</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="R2" t="n">
-        <v>500.2410732550297</v>
+        <v>288.2160725767712</v>
       </c>
       <c r="S2" t="n">
-        <v>500.2410732550297</v>
+        <v>288.2160725767712</v>
       </c>
       <c r="T2" t="n">
-        <v>500.2410732550297</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="U2" t="n">
-        <v>351.91165801391</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="V2" t="n">
-        <v>308.4065201693362</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="W2" t="n">
-        <v>160.0771049282164</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="X2" t="n">
-        <v>11.74768968709668</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.74768968709668</v>
+        <v>7.413195943128176</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>400.3193684206589</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="C3" t="n">
-        <v>251.9899531795391</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="D3" t="n">
-        <v>251.9899531795391</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="E3" t="n">
-        <v>251.9899531795391</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="F3" t="n">
-        <v>251.9899531795391</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="G3" t="n">
-        <v>114.3717018502035</v>
+        <v>41.60238814026729</v>
       </c>
       <c r="H3" t="n">
-        <v>11.74768968709668</v>
+        <v>41.60238814026729</v>
       </c>
       <c r="I3" t="n">
-        <v>11.74768968709668</v>
+        <v>41.60238814026729</v>
       </c>
       <c r="J3" t="n">
-        <v>11.74768968709668</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K3" t="n">
-        <v>51.36582106616808</v>
+        <v>28.29609765201163</v>
       </c>
       <c r="L3" t="n">
-        <v>150.9598290415665</v>
+        <v>102.6982772648967</v>
       </c>
       <c r="M3" t="n">
-        <v>286.5382069752468</v>
+        <v>194.4365770611079</v>
       </c>
       <c r="N3" t="n">
-        <v>431.9158668530682</v>
+        <v>226.5580308522524</v>
       </c>
       <c r="O3" t="n">
-        <v>550.1875401335669</v>
+        <v>317.2247932514005</v>
       </c>
       <c r="P3" t="n">
-        <v>586.7735145200476</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="Q3" t="n">
-        <v>587.3844843548342</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="R3" t="n">
-        <v>587.3844843548342</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="S3" t="n">
-        <v>587.3844843548342</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="T3" t="n">
-        <v>587.3844843548342</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="U3" t="n">
-        <v>548.6487836617787</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="V3" t="n">
-        <v>548.6487836617787</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="W3" t="n">
-        <v>400.3193684206589</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="X3" t="n">
-        <v>400.3193684206589</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="Y3" t="n">
-        <v>400.3193684206589</v>
+        <v>89.85692052276578</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.74768968709668</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="C4" t="n">
-        <v>11.74768968709668</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D4" t="n">
-        <v>11.74768968709668</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E4" t="n">
-        <v>11.74768968709668</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F4" t="n">
-        <v>11.74768968709668</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G4" t="n">
-        <v>11.74768968709668</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H4" t="n">
-        <v>11.74768968709668</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I4" t="n">
-        <v>11.74768968709668</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J4" t="n">
-        <v>11.74768968709668</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K4" t="n">
-        <v>11.74768968709668</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="L4" t="n">
-        <v>14.12595803543237</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="M4" t="n">
-        <v>19.89179156510262</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="N4" t="n">
-        <v>33.37805236665694</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="O4" t="n">
-        <v>33.37805236665694</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="P4" t="n">
-        <v>33.37805236665694</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Q4" t="n">
-        <v>33.37805236665694</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="R4" t="n">
-        <v>33.37805236665694</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="S4" t="n">
-        <v>33.37805236665694</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="T4" t="n">
-        <v>33.37805236665694</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="U4" t="n">
-        <v>33.37805236665694</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="V4" t="n">
-        <v>33.37805236665694</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="W4" t="n">
-        <v>11.74768968709668</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="X4" t="n">
-        <v>11.74768968709668</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.74768968709668</v>
+        <v>7.413195943128176</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>290.7256538725942</v>
+        <v>108.7153067878048</v>
       </c>
       <c r="C5" t="n">
-        <v>290.7256538725942</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="D5" t="n">
-        <v>142.3962386314747</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="E5" t="n">
-        <v>18.13634036116621</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="F5" t="n">
-        <v>18.13634036116621</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="G5" t="n">
-        <v>18.13634036116621</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="H5" t="n">
-        <v>18.13634036116621</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="I5" t="n">
-        <v>18.13634036116621</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="J5" t="n">
-        <v>11.74768968709666</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="K5" t="n">
-        <v>53.10181779182949</v>
+        <v>32.11753523687554</v>
       </c>
       <c r="L5" t="n">
-        <v>141.3070323458388</v>
+        <v>97.73708609773416</v>
       </c>
       <c r="M5" t="n">
-        <v>271.1217663066247</v>
+        <v>202.4209174083931</v>
       </c>
       <c r="N5" t="n">
-        <v>407.650846758855</v>
+        <v>313.4124509320676</v>
       </c>
       <c r="O5" t="n">
-        <v>523.2361246735293</v>
+        <v>404.8833474416799</v>
       </c>
       <c r="P5" t="n">
-        <v>587.3844843548331</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="Q5" t="n">
-        <v>587.3844843548331</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="R5" t="n">
-        <v>587.3844843548331</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="S5" t="n">
-        <v>587.3844843548331</v>
+        <v>335.2055292623982</v>
       </c>
       <c r="T5" t="n">
-        <v>439.0550691137137</v>
+        <v>221.9604180251015</v>
       </c>
       <c r="U5" t="n">
-        <v>290.7256538725942</v>
+        <v>221.9604180251015</v>
       </c>
       <c r="V5" t="n">
-        <v>290.7256538725942</v>
+        <v>221.9604180251015</v>
       </c>
       <c r="W5" t="n">
-        <v>290.7256538725942</v>
+        <v>221.9604180251015</v>
       </c>
       <c r="X5" t="n">
-        <v>290.7256538725942</v>
+        <v>221.9604180251015</v>
       </c>
       <c r="Y5" t="n">
-        <v>290.7256538725942</v>
+        <v>221.9604180251015</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>290.7256538725942</v>
+        <v>325.8554698928816</v>
       </c>
       <c r="C6" t="n">
-        <v>290.7256538725942</v>
+        <v>325.8554698928816</v>
       </c>
       <c r="D6" t="n">
-        <v>290.7256538725942</v>
+        <v>212.6103586555849</v>
       </c>
       <c r="E6" t="n">
-        <v>149.3659410164323</v>
+        <v>212.6103586555849</v>
       </c>
       <c r="F6" t="n">
-        <v>149.3659410164323</v>
+        <v>122.2141240472906</v>
       </c>
       <c r="G6" t="n">
-        <v>11.74768968709666</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="H6" t="n">
-        <v>11.74768968709666</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="I6" t="n">
-        <v>11.74768968709666</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="J6" t="n">
-        <v>11.74768968709666</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="K6" t="n">
-        <v>51.36582106616804</v>
+        <v>36.22166818534551</v>
       </c>
       <c r="L6" t="n">
-        <v>150.9598290415664</v>
+        <v>119.1887676792232</v>
       </c>
       <c r="M6" t="n">
-        <v>286.5382069752466</v>
+        <v>230.1803012028977</v>
       </c>
       <c r="N6" t="n">
-        <v>431.9158668530678</v>
+        <v>341.1718347265722</v>
       </c>
       <c r="O6" t="n">
-        <v>550.1875401335664</v>
+        <v>387.4830745953196</v>
       </c>
       <c r="P6" t="n">
-        <v>586.7735145200465</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="Q6" t="n">
-        <v>587.3844843548331</v>
+        <v>439.1005811301782</v>
       </c>
       <c r="R6" t="n">
-        <v>587.3844843548331</v>
+        <v>439.1005811301782</v>
       </c>
       <c r="S6" t="n">
-        <v>587.3844843548331</v>
+        <v>439.1005811301782</v>
       </c>
       <c r="T6" t="n">
-        <v>587.3844843548331</v>
+        <v>439.1005811301782</v>
       </c>
       <c r="U6" t="n">
-        <v>439.0550691137137</v>
+        <v>325.8554698928816</v>
       </c>
       <c r="V6" t="n">
-        <v>439.0550691137137</v>
+        <v>325.8554698928816</v>
       </c>
       <c r="W6" t="n">
-        <v>439.0550691137137</v>
+        <v>325.8554698928816</v>
       </c>
       <c r="X6" t="n">
-        <v>439.0550691137137</v>
+        <v>325.8554698928816</v>
       </c>
       <c r="Y6" t="n">
-        <v>290.7256538725942</v>
+        <v>325.8554698928816</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.74768968709666</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="C7" t="n">
-        <v>11.74768968709666</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="D7" t="n">
-        <v>11.74768968709666</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="E7" t="n">
-        <v>11.74768968709666</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="F7" t="n">
-        <v>11.74768968709666</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="G7" t="n">
-        <v>11.74768968709666</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="H7" t="n">
-        <v>11.74768968709666</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="I7" t="n">
-        <v>11.74768968709666</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="J7" t="n">
-        <v>11.74768968709666</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="K7" t="n">
-        <v>11.74768968709666</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="L7" t="n">
-        <v>14.12595803543232</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="M7" t="n">
-        <v>19.89179156510255</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="N7" t="n">
-        <v>33.37805236665683</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="O7" t="n">
-        <v>33.37805236665683</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="P7" t="n">
-        <v>33.37805236665683</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="Q7" t="n">
-        <v>33.37805236665683</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="R7" t="n">
-        <v>33.37805236665683</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="S7" t="n">
-        <v>33.37805236665683</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="T7" t="n">
-        <v>33.37805236665683</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="U7" t="n">
-        <v>11.74768968709666</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="V7" t="n">
-        <v>11.74768968709666</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="W7" t="n">
-        <v>11.74768968709666</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="X7" t="n">
-        <v>11.74768968709666</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="Y7" t="n">
-        <v>11.74768968709666</v>
+        <v>8.969012809993897</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>560.6825636487954</v>
+        <v>157.7105344236251</v>
       </c>
       <c r="C8" t="n">
-        <v>560.6825636487954</v>
+        <v>157.7105344236251</v>
       </c>
       <c r="D8" t="n">
-        <v>371.2627786323105</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="E8" t="n">
-        <v>181.8429936158255</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="F8" t="n">
-        <v>15.0020469733056</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="G8" t="n">
-        <v>15.0020469733056</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="H8" t="n">
-        <v>15.0020469733056</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="I8" t="n">
-        <v>15.0020469733056</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678508</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058969</v>
+        <v>51.79022575657168</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079186</v>
+        <v>138.5837562783352</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644756</v>
+        <v>266.8277197508551</v>
       </c>
       <c r="N8" t="n">
-        <v>509.495204112383</v>
+        <v>401.7606130061291</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985586</v>
+        <v>515.8386566132575</v>
       </c>
       <c r="P8" t="n">
-        <v>734.461172602027</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652803</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="R8" t="n">
-        <v>750.1023486652803</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="S8" t="n">
-        <v>750.1023486652803</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="T8" t="n">
-        <v>560.6825636487954</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="U8" t="n">
-        <v>560.6825636487954</v>
+        <v>431.5784655488496</v>
       </c>
       <c r="V8" t="n">
-        <v>560.6825636487954</v>
+        <v>431.5784655488496</v>
       </c>
       <c r="W8" t="n">
-        <v>560.6825636487954</v>
+        <v>431.5784655488496</v>
       </c>
       <c r="X8" t="n">
-        <v>560.6825636487954</v>
+        <v>303.8470563135668</v>
       </c>
       <c r="Y8" t="n">
-        <v>560.6825636487954</v>
+        <v>157.7105344236251</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>444.3891850919815</v>
+        <v>157.7105344236251</v>
       </c>
       <c r="C9" t="n">
-        <v>269.9361558108545</v>
+        <v>157.7105344236251</v>
       </c>
       <c r="D9" t="n">
-        <v>269.9361558108545</v>
+        <v>157.7105344236251</v>
       </c>
       <c r="E9" t="n">
-        <v>269.9361558108545</v>
+        <v>157.7105344236251</v>
       </c>
       <c r="F9" t="n">
-        <v>269.9361558108545</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="G9" t="n">
-        <v>132.3969746333036</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="H9" t="n">
-        <v>30.53661367296051</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="I9" t="n">
-        <v>30.53661367296051</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="J9" t="n">
-        <v>15.0020469733056</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024219</v>
+        <v>50.41925783498756</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772651</v>
+        <v>148.9740250987618</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140248</v>
+        <v>283.3396581397943</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546606</v>
+        <v>426.5680632441262</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476352</v>
+        <v>543.7009487075663</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017067</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652803</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="R9" t="n">
-        <v>750.1023486652803</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="S9" t="n">
-        <v>598.8192732198765</v>
+        <v>432.5641047942274</v>
       </c>
       <c r="T9" t="n">
-        <v>598.8192732198765</v>
+        <v>303.8470563135668</v>
       </c>
       <c r="U9" t="n">
-        <v>598.8192732198765</v>
+        <v>303.8470563135668</v>
       </c>
       <c r="V9" t="n">
-        <v>598.8192732198765</v>
+        <v>303.8470563135668</v>
       </c>
       <c r="W9" t="n">
-        <v>598.8192732198765</v>
+        <v>303.8470563135668</v>
       </c>
       <c r="X9" t="n">
-        <v>598.8192732198765</v>
+        <v>303.8470563135668</v>
       </c>
       <c r="Y9" t="n">
-        <v>598.8192732198765</v>
+        <v>303.8470563135668</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.0020469733056</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="C10" t="n">
-        <v>15.0020469733056</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="D10" t="n">
-        <v>15.0020469733056</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="E10" t="n">
-        <v>15.0020469733056</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="F10" t="n">
-        <v>15.0020469733056</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="G10" t="n">
-        <v>15.0020469733056</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="H10" t="n">
-        <v>15.0020469733056</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="I10" t="n">
-        <v>15.0020469733056</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="J10" t="n">
-        <v>15.0020469733056</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="K10" t="n">
-        <v>15.0020469733056</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="L10" t="n">
-        <v>27.03967056230183</v>
+        <v>13.35570305153742</v>
       </c>
       <c r="M10" t="n">
-        <v>42.98993985170729</v>
+        <v>18.49252890534889</v>
       </c>
       <c r="N10" t="n">
-        <v>66.41847329396353</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="O10" t="n">
-        <v>67.74542702829011</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="P10" t="n">
-        <v>67.74542702829011</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="Q10" t="n">
-        <v>67.74542702829011</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="R10" t="n">
-        <v>67.74542702829011</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="S10" t="n">
-        <v>67.74542702829011</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="T10" t="n">
-        <v>67.74542702829011</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="U10" t="n">
-        <v>67.74542702829011</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="V10" t="n">
-        <v>67.74542702829011</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="W10" t="n">
-        <v>15.0020469733056</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="X10" t="n">
-        <v>15.0020469733056</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.0020469733056</v>
+        <v>31.36473842767504</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1308.370295943747</v>
+        <v>1627.222941712997</v>
       </c>
       <c r="C11" t="n">
-        <v>939.4077790033352</v>
+        <v>1258.260424772586</v>
       </c>
       <c r="D11" t="n">
-        <v>581.1420803965848</v>
+        <v>899.9947261658353</v>
       </c>
       <c r="E11" t="n">
-        <v>195.3538277983405</v>
+        <v>899.9947261658353</v>
       </c>
       <c r="F11" t="n">
-        <v>108.5090151927147</v>
+        <v>845.7541926763687</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>429.7231473797759</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810554</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136265</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520487</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450753</v>
+        <v>1627.222941712997</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180638</v>
+        <v>1627.222941712997</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.509627919559</v>
+        <v>1627.222941712997</v>
       </c>
       <c r="Y11" t="n">
-        <v>1308.370295943747</v>
+        <v>1627.222941712997</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811084</v>
+        <v>498.0756191779149</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999814</v>
+        <v>498.0756191779149</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387301</v>
+        <v>349.1412095166636</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332746</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601596</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927777</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>1627.262386835205</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>1432.552065309181</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>1432.552065309181</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1197.399957077438</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>943.1626003492363</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>735.3111001437035</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>666.290956197983</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>342.3669689068678</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C13" t="n">
-        <v>342.3669689068678</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D13" t="n">
-        <v>192.2503294945321</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E13" t="n">
-        <v>66.5121164321834</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F13" t="n">
-        <v>66.5121164321834</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G13" t="n">
-        <v>66.5121164321834</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H13" t="n">
-        <v>66.5121164321834</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962286</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372932</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L13" t="n">
-        <v>332.3555681596505</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588483</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886958</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068855</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596442</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181849</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R13" t="n">
-        <v>920.8870058181849</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S13" t="n">
-        <v>920.8870058181849</v>
+        <v>321.1098614248255</v>
       </c>
       <c r="T13" t="n">
-        <v>920.8870058181849</v>
+        <v>321.1098614248255</v>
       </c>
       <c r="U13" t="n">
-        <v>631.7841389438285</v>
+        <v>321.1098614248255</v>
       </c>
       <c r="V13" t="n">
-        <v>631.7841389438285</v>
+        <v>66.42537321893857</v>
       </c>
       <c r="W13" t="n">
-        <v>342.3669689068678</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="X13" t="n">
-        <v>342.3669689068678</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y13" t="n">
-        <v>342.3669689068678</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1698.509627919559</v>
+        <v>1214.151011373342</v>
       </c>
       <c r="C14" t="n">
-        <v>1678.62132134232</v>
+        <v>845.18849443293</v>
       </c>
       <c r="D14" t="n">
-        <v>1320.35562273557</v>
+        <v>845.18849443293</v>
       </c>
       <c r="E14" t="n">
-        <v>934.5673701373257</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="F14" t="n">
-        <v>523.5814653477182</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="G14" t="n">
-        <v>108.5090151927147</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I14" t="n">
-        <v>66.5121164321834</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>366.8168396232727</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>669.5878927711874</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136265</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520487</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794324</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450753</v>
+        <v>1705.262284299213</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.975386180638</v>
+        <v>1600.750851437464</v>
       </c>
       <c r="X14" t="n">
-        <v>1698.509627919559</v>
+        <v>1600.750851437464</v>
       </c>
       <c r="Y14" t="n">
-        <v>1698.509627919559</v>
+        <v>1600.750851437464</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>658.1155862848198</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>483.6625570036928</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>334.7281473424415</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>175.490692336986</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>175.490692336986</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>175.490692336986</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="I15" t="n">
-        <v>66.5121164321834</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>89.55356510562314</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>504.1959674104394</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>824.1028628789486</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>1672.753048689046</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>1731.332187235319</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>1731.332187235319</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>1731.332187235319</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1496.180079003576</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1241.942722275375</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1034.091222069842</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>826.3309233048878</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>508.4085425014811</v>
+        <v>510.3351124607289</v>
       </c>
       <c r="C16" t="n">
-        <v>508.4085425014811</v>
+        <v>341.3989295328219</v>
       </c>
       <c r="D16" t="n">
-        <v>508.4085425014811</v>
+        <v>191.2822901204862</v>
       </c>
       <c r="E16" t="n">
-        <v>508.4085425014811</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F16" t="n">
-        <v>380.4321398396066</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G16" t="n">
-        <v>212.7293032143256</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H16" t="n">
-        <v>66.5121164321834</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I16" t="n">
-        <v>66.5121164321834</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962286</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6457242372932</v>
+        <v>92.71685897981519</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596505</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588483</v>
+        <v>287.1411594927331</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886958</v>
+        <v>393.9588065377459</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068855</v>
+        <v>472.3091036033657</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596442</v>
+        <v>520.289347040599</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.8870058181849</v>
+        <v>520.289347040599</v>
       </c>
       <c r="R16" t="n">
-        <v>920.8870058181849</v>
+        <v>520.289347040599</v>
       </c>
       <c r="S16" t="n">
-        <v>729.2011216450112</v>
+        <v>520.289347040599</v>
       </c>
       <c r="T16" t="n">
-        <v>729.2011216450112</v>
+        <v>520.289347040599</v>
       </c>
       <c r="U16" t="n">
-        <v>729.2011216450112</v>
+        <v>520.289347040599</v>
       </c>
       <c r="V16" t="n">
-        <v>729.2011216450112</v>
+        <v>510.3351124607289</v>
       </c>
       <c r="W16" t="n">
-        <v>729.2011216450112</v>
+        <v>510.3351124607289</v>
       </c>
       <c r="X16" t="n">
-        <v>729.2011216450112</v>
+        <v>510.3351124607289</v>
       </c>
       <c r="Y16" t="n">
-        <v>508.4085425014811</v>
+        <v>510.3351124607289</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2196.097994299122</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C17" t="n">
-        <v>1827.13547735871</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D17" t="n">
-        <v>1468.86977875196</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E17" t="n">
-        <v>1083.081526153716</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F17" t="n">
-        <v>672.0956213641082</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G17" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
@@ -5539,28 +5539,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.60582160917</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V17" t="n">
-        <v>3325.60582160917</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W17" t="n">
-        <v>2972.837166339056</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="X17" t="n">
-        <v>2972.837166339056</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y17" t="n">
-        <v>2582.697834363244</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>218.3316393401808</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C19" t="n">
-        <v>218.3316393401808</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D19" t="n">
-        <v>218.3316393401808</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E19" t="n">
-        <v>70.41854575778768</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F19" t="n">
-        <v>70.41854575778768</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L19" t="n">
         <v>332.3555681596505</v>
@@ -5700,25 +5700,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S19" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T19" t="n">
-        <v>507.4345062145372</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U19" t="n">
-        <v>218.3316393401808</v>
+        <v>788.162520560706</v>
       </c>
       <c r="V19" t="n">
-        <v>218.3316393401808</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="W19" t="n">
-        <v>218.3316393401808</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="X19" t="n">
-        <v>218.3316393401808</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.3316393401808</v>
+        <v>533.4780323548191</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2005.586939522201</v>
+        <v>1274.53911114974</v>
       </c>
       <c r="C20" t="n">
-        <v>1636.624422581789</v>
+        <v>1274.53911114974</v>
       </c>
       <c r="D20" t="n">
-        <v>1278.358723975039</v>
+        <v>1274.53911114974</v>
       </c>
       <c r="E20" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F20" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G20" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H20" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5776,28 +5776,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U20" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V20" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W20" t="n">
-        <v>3155.791869823214</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X20" t="n">
-        <v>2782.326111562134</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y20" t="n">
-        <v>2392.186779586323</v>
+        <v>1661.138951213862</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>342.3669689068678</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C22" t="n">
-        <v>342.3669689068678</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D22" t="n">
-        <v>342.3669689068678</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E22" t="n">
-        <v>342.3669689068678</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F22" t="n">
-        <v>195.4770214089575</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K22" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L22" t="n">
         <v>332.3555681596505</v>
@@ -5937,25 +5937,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S22" t="n">
-        <v>920.8870058181849</v>
+        <v>733.1984123552966</v>
       </c>
       <c r="T22" t="n">
-        <v>920.8870058181849</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="U22" t="n">
-        <v>631.7841389438285</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="V22" t="n">
-        <v>631.7841389438285</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="W22" t="n">
-        <v>342.3669689068678</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="X22" t="n">
-        <v>342.3669689068678</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="Y22" t="n">
-        <v>342.3669689068678</v>
+        <v>511.4317969248226</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2345.167438673965</v>
+        <v>1528.069587875903</v>
       </c>
       <c r="C23" t="n">
-        <v>1976.204921733553</v>
+        <v>1159.107070935491</v>
       </c>
       <c r="D23" t="n">
-        <v>1617.939223126803</v>
+        <v>800.841372328741</v>
       </c>
       <c r="E23" t="n">
-        <v>1232.150970528558</v>
+        <v>415.0531197304968</v>
       </c>
       <c r="F23" t="n">
-        <v>821.1650657389509</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G23" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
@@ -6013,28 +6013,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U23" t="n">
-        <v>3072.075344883007</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V23" t="n">
-        <v>2741.012457539436</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W23" t="n">
-        <v>2741.012457539436</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="X23" t="n">
-        <v>2741.012457539436</v>
+        <v>2304.808759915837</v>
       </c>
       <c r="Y23" t="n">
-        <v>2731.767278738087</v>
+        <v>1914.669427940025</v>
       </c>
     </row>
     <row r="24">
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
         <v>618.1564155387305</v>
@@ -6056,46 +6056,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064582</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T24" t="n">
         <v>2242.828302297192</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>511.4317969248226</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C25" t="n">
-        <v>511.4317969248226</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D25" t="n">
-        <v>361.3151575124869</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E25" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F25" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K25" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L25" t="n">
         <v>332.3555681596505</v>
@@ -6177,22 +6177,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T25" t="n">
-        <v>699.1203903877109</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="U25" t="n">
-        <v>511.4317969248226</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="V25" t="n">
-        <v>511.4317969248226</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="W25" t="n">
-        <v>511.4317969248226</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="X25" t="n">
-        <v>511.4317969248226</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y25" t="n">
-        <v>511.4317969248226</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1822.632236038043</v>
+        <v>1628.178203944121</v>
       </c>
       <c r="C26" t="n">
-        <v>1822.632236038043</v>
+        <v>1628.178203944121</v>
       </c>
       <c r="D26" t="n">
-        <v>1464.366537431292</v>
+        <v>1269.912505337371</v>
       </c>
       <c r="E26" t="n">
-        <v>1078.578284833048</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F26" t="n">
-        <v>667.5923800434407</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G26" t="n">
-        <v>252.5199298884372</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M26" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O26" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R26" t="n">
         <v>3325.605821609171</v>
@@ -6259,19 +6259,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V26" t="n">
-        <v>3325.605821609171</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W26" t="n">
-        <v>2972.837166339056</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X26" t="n">
-        <v>2599.371408077976</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y26" t="n">
-        <v>2209.232076102165</v>
+        <v>2014.778044008243</v>
       </c>
     </row>
     <row r="27">
@@ -6296,16 +6296,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K27" t="n">
         <v>398.4535849031479</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>848.0708164780106</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="C28" t="n">
-        <v>679.1346335501037</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D28" t="n">
-        <v>529.0179941377679</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E28" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F28" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J28" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K28" t="n">
         <v>176.6457242372933</v>
@@ -6393,43 +6393,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M28" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N28" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O28" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P28" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q28" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R28" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S28" t="n">
-        <v>920.8870058181849</v>
+        <v>754.2215017008103</v>
       </c>
       <c r="T28" t="n">
-        <v>848.0708164780106</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="U28" t="n">
-        <v>848.0708164780106</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="V28" t="n">
-        <v>848.0708164780106</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="W28" t="n">
-        <v>848.0708164780106</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="X28" t="n">
-        <v>848.0708164780106</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="Y28" t="n">
-        <v>848.0708164780106</v>
+        <v>532.4548862703364</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1681.836054204828</v>
+        <v>1636.597933493125</v>
       </c>
       <c r="C29" t="n">
-        <v>1681.836054204828</v>
+        <v>1267.635416552713</v>
       </c>
       <c r="D29" t="n">
-        <v>1323.570355598078</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="E29" t="n">
-        <v>937.7821029998333</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F29" t="n">
-        <v>526.7961982102258</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G29" t="n">
-        <v>111.7237480552223</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794325</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V29" t="n">
-        <v>2424.744041450754</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W29" t="n">
-        <v>2071.97538618064</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X29" t="n">
-        <v>2071.97538618064</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="Y29" t="n">
-        <v>1681.836054204828</v>
+        <v>2023.197773557246</v>
       </c>
     </row>
     <row r="30">
@@ -6518,31 +6518,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031479</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>235.4482993600903</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C31" t="n">
-        <v>66.51211643218343</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D31" t="n">
-        <v>66.51211643218343</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E31" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L31" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M31" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N31" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O31" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P31" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q31" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R31" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S31" t="n">
-        <v>729.2011216450114</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T31" t="n">
-        <v>729.2011216450114</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U31" t="n">
-        <v>729.2011216450114</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V31" t="n">
-        <v>729.2011216450114</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W31" t="n">
-        <v>645.0863150883474</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="X31" t="n">
-        <v>417.0967641903301</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="Y31" t="n">
-        <v>417.0967641903301</v>
+        <v>511.4317969248226</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1250.836169983545</v>
+        <v>2148.434869859537</v>
       </c>
       <c r="C32" t="n">
-        <v>1250.836169983545</v>
+        <v>1779.472352919126</v>
       </c>
       <c r="D32" t="n">
-        <v>892.5704713767946</v>
+        <v>1421.206654312375</v>
       </c>
       <c r="E32" t="n">
-        <v>892.5704713767946</v>
+        <v>1035.418401714131</v>
       </c>
       <c r="F32" t="n">
-        <v>481.5845665871869</v>
+        <v>624.4324969245233</v>
       </c>
       <c r="G32" t="n">
-        <v>66.5121164321834</v>
+        <v>209.3600467695198</v>
       </c>
       <c r="H32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M32" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U32" t="n">
-        <v>2961.784676410101</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V32" t="n">
-        <v>2630.721789066531</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W32" t="n">
-        <v>2277.953133796416</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="X32" t="n">
-        <v>1904.487375535336</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="Y32" t="n">
-        <v>1637.436010047667</v>
+        <v>2535.034709923659</v>
       </c>
     </row>
     <row r="33">
@@ -6770,16 +6770,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K33" t="n">
         <v>398.4535849031479</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>848.0708164780106</v>
+        <v>530.2513404403938</v>
       </c>
       <c r="C34" t="n">
-        <v>679.1346335501037</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="D34" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E34" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F34" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J34" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K34" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L34" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M34" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N34" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O34" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P34" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q34" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R34" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S34" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T34" t="n">
-        <v>920.8870058181849</v>
+        <v>819.6685104773544</v>
       </c>
       <c r="U34" t="n">
-        <v>920.8870058181849</v>
+        <v>819.6685104773544</v>
       </c>
       <c r="V34" t="n">
-        <v>920.8870058181849</v>
+        <v>819.6685104773544</v>
       </c>
       <c r="W34" t="n">
-        <v>920.8870058181849</v>
+        <v>530.2513404403938</v>
       </c>
       <c r="X34" t="n">
-        <v>920.8870058181849</v>
+        <v>530.2513404403938</v>
       </c>
       <c r="Y34" t="n">
-        <v>848.0708164780106</v>
+        <v>530.2513404403938</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2047.583838282732</v>
+        <v>1594.601034732593</v>
       </c>
       <c r="C35" t="n">
-        <v>1678.62132134232</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="D35" t="n">
-        <v>1320.35562273557</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E35" t="n">
-        <v>934.5673701373257</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F35" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
@@ -6967,22 +6967,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V35" t="n">
-        <v>2424.744041450754</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W35" t="n">
-        <v>2071.97538618064</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X35" t="n">
-        <v>2071.97538618064</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y35" t="n">
-        <v>2071.97538618064</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="36">
@@ -7007,16 +7007,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7086,16 +7086,16 @@
         <v>234.2149530574645</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K37" t="n">
         <v>176.6457242372933</v>
@@ -7104,43 +7104,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M37" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N37" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O37" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P37" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q37" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R37" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S37" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T37" t="n">
-        <v>920.887005818185</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="U37" t="n">
-        <v>920.887005818185</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="V37" t="n">
-        <v>920.887005818185</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="W37" t="n">
-        <v>920.887005818185</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="X37" t="n">
-        <v>920.887005818185</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y37" t="n">
-        <v>920.887005818185</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1278.358723975039</v>
+        <v>2120.647175555803</v>
       </c>
       <c r="C38" t="n">
-        <v>1278.358723975039</v>
+        <v>1751.684658615392</v>
       </c>
       <c r="D38" t="n">
-        <v>1278.358723975039</v>
+        <v>1393.418960008641</v>
       </c>
       <c r="E38" t="n">
-        <v>892.5704713767946</v>
+        <v>1007.630707410397</v>
       </c>
       <c r="F38" t="n">
-        <v>481.5845665871869</v>
+        <v>596.6448026207893</v>
       </c>
       <c r="G38" t="n">
-        <v>66.5121164321834</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7198,28 +7198,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450753</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.975386180638</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="X38" t="n">
-        <v>2055.097896014972</v>
+        <v>2510.786507531615</v>
       </c>
       <c r="Y38" t="n">
-        <v>1664.958564039161</v>
+        <v>2120.647175555803</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>848.0708164780106</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="C40" t="n">
-        <v>679.1346335501037</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D40" t="n">
-        <v>529.0179941377679</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E40" t="n">
         <v>381.1049005553748</v>
       </c>
       <c r="F40" t="n">
-        <v>234.2149530574644</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K40" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L40" t="n">
         <v>332.3555681596505</v>
@@ -7365,19 +7365,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U40" t="n">
-        <v>920.8870058181849</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V40" t="n">
-        <v>920.8870058181849</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="W40" t="n">
-        <v>920.8870058181849</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="X40" t="n">
-        <v>848.0708164780106</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="Y40" t="n">
-        <v>848.0708164780106</v>
+        <v>381.1049005553748</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1528.069587875903</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="C41" t="n">
-        <v>1528.069587875903</v>
+        <v>1439.837779452053</v>
       </c>
       <c r="D41" t="n">
-        <v>1278.358723975039</v>
+        <v>1081.572080845303</v>
       </c>
       <c r="E41" t="n">
-        <v>892.5704713767946</v>
+        <v>695.7838282470586</v>
       </c>
       <c r="F41" t="n">
-        <v>481.5845665871869</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G41" t="n">
-        <v>66.5121164321834</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U41" t="n">
-        <v>3009.337405520487</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V41" t="n">
-        <v>2678.274518176916</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W41" t="n">
-        <v>2678.274518176916</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X41" t="n">
-        <v>2304.808759915837</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y41" t="n">
-        <v>1914.669427940025</v>
+        <v>1808.800296392465</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7523,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7532,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>377.0996507379416</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="C43" t="n">
-        <v>377.0996507379416</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D43" t="n">
-        <v>377.0996507379416</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E43" t="n">
-        <v>377.0996507379416</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F43" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K43" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L43" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M43" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N43" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O43" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P43" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U43" t="n">
-        <v>631.7841389438285</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V43" t="n">
-        <v>377.0996507379416</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W43" t="n">
-        <v>377.0996507379416</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X43" t="n">
-        <v>377.0996507379416</v>
+        <v>714.1033511005761</v>
       </c>
       <c r="Y43" t="n">
-        <v>377.0996507379416</v>
+        <v>714.1033511005761</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1934.181533884357</v>
+        <v>1887.813801820606</v>
       </c>
       <c r="C44" t="n">
-        <v>1565.219016943946</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D44" t="n">
-        <v>1206.953318337195</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E44" t="n">
-        <v>821.1650657389509</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F44" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
         <v>108.5090151927147</v>
@@ -7648,13 +7648,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001389</v>
@@ -7672,28 +7672,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T44" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U44" t="n">
-        <v>3028.849511464819</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V44" t="n">
-        <v>2697.786624121249</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W44" t="n">
-        <v>2697.786624121249</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X44" t="n">
-        <v>2324.320865860169</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y44" t="n">
-        <v>1934.181533884357</v>
+        <v>1887.813801820606</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D45" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
@@ -7733,46 +7733,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>508.4085425014813</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C46" t="n">
-        <v>508.4085425014813</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D46" t="n">
-        <v>358.2919030891455</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E46" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G46" t="n">
         <v>66.51211643218343</v>
@@ -7806,52 +7806,52 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K46" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L46" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M46" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N46" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O46" t="n">
-        <v>809.0152357068856</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P46" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q46" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R46" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S46" t="n">
-        <v>729.2011216450114</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T46" t="n">
-        <v>729.2011216450114</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="U46" t="n">
-        <v>729.2011216450114</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="V46" t="n">
-        <v>729.2011216450114</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="W46" t="n">
-        <v>729.2011216450114</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="X46" t="n">
-        <v>729.2011216450114</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y46" t="n">
-        <v>508.4085425014813</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
   </sheetData>
@@ -22561,16 +22561,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.2441370602317</v>
+        <v>413.4631744246258</v>
       </c>
       <c r="H2" t="n">
-        <v>318.3921602069877</v>
+        <v>320.6353766150897</v>
       </c>
       <c r="I2" t="n">
-        <v>131.1116955327426</v>
+        <v>139.5561335235496</v>
       </c>
       <c r="J2" t="n">
-        <v>6.324764167328823</v>
+        <v>24.91528667358037</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,28 +22591,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>23.65357118422324</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>18.41179549609184</v>
       </c>
       <c r="S2" t="n">
-        <v>162.1097117201341</v>
+        <v>167.1010256612668</v>
       </c>
       <c r="T2" t="n">
-        <v>214.0843260727917</v>
+        <v>122.3782128463251</v>
       </c>
       <c r="U2" t="n">
-        <v>104.3348437827357</v>
+        <v>158.5335385714936</v>
       </c>
       <c r="V2" t="n">
-        <v>284.6821720040069</v>
+        <v>235.0873091810327</v>
       </c>
       <c r="W2" t="n">
-        <v>202.3948476287045</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>222.8849795897605</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22628,7 +22628,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>25.8623778996072</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22640,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>88.58727707927082</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>102.729632124056</v>
       </c>
       <c r="I3" t="n">
-        <v>61.59970664354544</v>
+        <v>65.63472101605001</v>
       </c>
       <c r="J3" t="n">
-        <v>22.77491242827335</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22670,25 +22670,25 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>14.3427387906227</v>
       </c>
       <c r="R3" t="n">
-        <v>77.29308816345811</v>
+        <v>84.56947841277972</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2242511465658</v>
+        <v>60.73615356033713</v>
       </c>
       <c r="T3" t="n">
-        <v>195.7251189095246</v>
+        <v>103.5325490100188</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5205746877993</v>
+        <v>225.8766285924705</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>140.1356378603231</v>
       </c>
       <c r="W3" t="n">
-        <v>104.8488620722111</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22719,55 +22719,55 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0675620642408</v>
+        <v>167.1658146852775</v>
       </c>
       <c r="H4" t="n">
-        <v>154.0171532915746</v>
+        <v>154.8907084131551</v>
       </c>
       <c r="I4" t="n">
-        <v>127.6807984793224</v>
+        <v>130.6355227555885</v>
       </c>
       <c r="J4" t="n">
-        <v>61.70981873818783</v>
+        <v>68.65627904547948</v>
       </c>
       <c r="K4" t="n">
-        <v>21.72895798776032</v>
+        <v>33.14412614092828</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>12.20519387026839</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>9.577470677924651</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.412844977410202</v>
       </c>
       <c r="O4" t="n">
-        <v>7.935701265474421</v>
+        <v>21.823262646183</v>
       </c>
       <c r="P4" t="n">
-        <v>26.0448796648253</v>
+        <v>37.92808757638606</v>
       </c>
       <c r="Q4" t="n">
-        <v>74.18139529270552</v>
+        <v>82.40871249605685</v>
       </c>
       <c r="R4" t="n">
-        <v>135.7731919480611</v>
+        <v>140.1909870721275</v>
       </c>
       <c r="S4" t="n">
-        <v>207.923953009556</v>
+        <v>209.6362282325312</v>
       </c>
       <c r="T4" t="n">
-        <v>224.0000791711685</v>
+        <v>224.4198858246887</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2686611404426</v>
+        <v>286.2740203743174</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>265.1089392838264</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,31 +22783,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>270.6211815385569</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>266.5240607329748</v>
       </c>
       <c r="D5" t="n">
-        <v>207.8369205319747</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>258.9130707846564</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.2441370602317</v>
+        <v>413.3887043444878</v>
       </c>
       <c r="H5" t="n">
-        <v>318.3921602069877</v>
+        <v>319.8727099068761</v>
       </c>
       <c r="I5" t="n">
-        <v>131.1116955327426</v>
+        <v>136.685125759028</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>18.59473170946464</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,19 +22828,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>15.61164031771682</v>
       </c>
       <c r="R5" t="n">
-        <v>86.27197698880644</v>
+        <v>95.3531516584621</v>
       </c>
       <c r="S5" t="n">
-        <v>162.1097117201341</v>
+        <v>53.29137858519752</v>
       </c>
       <c r="T5" t="n">
-        <v>67.23820498408344</v>
+        <v>102.6045092346993</v>
       </c>
       <c r="U5" t="n">
-        <v>104.3348437827359</v>
+        <v>251.1925302541847</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22868,25 +22868,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>35.33240543971505</v>
       </c>
       <c r="E6" t="n">
-        <v>17.69896472780067</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>55.57694013117252</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>24.20675900740713</v>
       </c>
       <c r="H6" t="n">
-        <v>101.5977720414757</v>
+        <v>102.3448132540521</v>
       </c>
       <c r="I6" t="n">
-        <v>61.59970664354545</v>
+        <v>64.26286446312977</v>
       </c>
       <c r="J6" t="n">
-        <v>22.77491242827338</v>
+        <v>30.08282103867671</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>77.29308816345812</v>
+        <v>82.095592888813</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2242511465658</v>
+        <v>152.6609993460486</v>
       </c>
       <c r="T6" t="n">
-        <v>195.7251189095246</v>
+        <v>196.0368949650912</v>
       </c>
       <c r="U6" t="n">
-        <v>79.02279728521597</v>
+        <v>113.7613470855985</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22931,7 +22931,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>58.83657468859607</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22956,55 +22956,55 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0675620642408</v>
+        <v>167.1324099710516</v>
       </c>
       <c r="H7" t="n">
-        <v>154.0171532915746</v>
+        <v>154.5937101357652</v>
       </c>
       <c r="I7" t="n">
-        <v>127.6807984793224</v>
+        <v>129.630951895051</v>
       </c>
       <c r="J7" t="n">
-        <v>61.70981873818785</v>
+        <v>66.29456574971167</v>
       </c>
       <c r="K7" t="n">
-        <v>21.72895798776034</v>
+        <v>29.26310570632462</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>7.238823902544752</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>4.341129883412066</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>7.935701265474449</v>
+        <v>17.10165812996878</v>
       </c>
       <c r="P7" t="n">
-        <v>26.04487966482533</v>
+        <v>33.88793923037925</v>
       </c>
       <c r="Q7" t="n">
-        <v>74.18139529270553</v>
+        <v>79.61152319847201</v>
       </c>
       <c r="R7" t="n">
-        <v>135.7731919480611</v>
+        <v>138.6889896488451</v>
       </c>
       <c r="S7" t="n">
-        <v>207.923953009556</v>
+        <v>209.0540751673406</v>
       </c>
       <c r="T7" t="n">
-        <v>224.0000791711685</v>
+        <v>224.2771565911783</v>
       </c>
       <c r="U7" t="n">
-        <v>264.8546020876781</v>
+        <v>286.2721982989959</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>282.8976208477874</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23026,25 +23026,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>167.1574544543629</v>
+        <v>210.0078849496407</v>
       </c>
       <c r="E8" t="n">
-        <v>194.4047829059417</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>241.7035085656167</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.097833230058</v>
+        <v>413.2531730278943</v>
       </c>
       <c r="H8" t="n">
-        <v>316.8938261062223</v>
+        <v>318.4846998108122</v>
       </c>
       <c r="I8" t="n">
-        <v>125.4713171199747</v>
+        <v>131.4600546760548</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>7.091680627731961</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>77.08171901666373</v>
+        <v>86.83958259249187</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900531</v>
+        <v>162.3156188332455</v>
       </c>
       <c r="T8" t="n">
-        <v>25.91829388988671</v>
+        <v>214.1238810212347</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1692605650303</v>
+        <v>106.5065310778149</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23086,10 +23086,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>243.277005535539</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>241.5627819850113</v>
       </c>
     </row>
     <row r="9">
@@ -23099,10 +23099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13.64739640325126</v>
+        <v>21.85802697882505</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23111,19 +23111,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0.3940557223415908</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.2469034849667</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>101.6444647650348</v>
       </c>
       <c r="I9" t="n">
-        <v>58.90455890409147</v>
+        <v>61.76616344642424</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>23.23168261818574</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>72.43289562846316</v>
+        <v>77.59326173053483</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>6.638896330325053</v>
       </c>
       <c r="T9" t="n">
-        <v>195.4095977920012</v>
+        <v>68.3147280221859</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8637684100909</v>
+        <v>225.8692364442482</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23181,7 +23181,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>147.6540024635761</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.0019352027142</v>
+        <v>167.07161528826</v>
       </c>
       <c r="H10" t="n">
-        <v>153.4336708318196</v>
+        <v>154.0531901378539</v>
       </c>
       <c r="I10" t="n">
-        <v>125.7072197708667</v>
+        <v>127.8026899798254</v>
       </c>
       <c r="J10" t="n">
-        <v>57.06999962825414</v>
+        <v>61.99638167634127</v>
       </c>
       <c r="K10" t="n">
-        <v>14.10430989402848</v>
+        <v>22.19986892380261</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23217,31 +23217,31 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>8.508606056834793</v>
       </c>
       <c r="P10" t="n">
-        <v>18.10760906709382</v>
+        <v>26.53509868619516</v>
       </c>
       <c r="Q10" t="n">
-        <v>68.68604055159722</v>
+        <v>74.52079753307214</v>
       </c>
       <c r="R10" t="n">
-        <v>132.8223696106904</v>
+        <v>135.9554396389582</v>
       </c>
       <c r="S10" t="n">
-        <v>206.7802557954962</v>
+        <v>207.9945896499623</v>
       </c>
       <c r="T10" t="n">
-        <v>223.7196734901001</v>
+        <v>224.0173974919776</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2688822253891</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>234.3070520821564</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23266,16 +23266,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>320.8996812621418</v>
+        <v>353.1779175871395</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23339,7 +23339,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23351,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23393,7 +23393,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23405,7 +23405,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>137.3527532710411</v>
       </c>
     </row>
     <row r="13">
@@ -23421,25 +23421,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>21.95313171484396</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>263.6973834225539</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>345.5834682595418</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>78.16360657708302</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,19 +23548,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>245.7746501842813</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23585,10 +23585,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23624,13 +23624,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>134.6979632733278</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23655,28 +23655,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>18.72440938767556</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>18.15430933923926</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,22 +23697,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>22.59469128425556</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>242.2829510897566</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>106.0018201581684</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,19 +23785,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>328.3742596033512</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23892,10 +23892,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>162.15844322668</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23940,16 +23940,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>154.8145978007088</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23971,13 +23971,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>45.35834646997171</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>181.1251564493167</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24132,16 +24132,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>38.35055233202189</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24177,19 +24177,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>3.957317803182463</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24217,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>61.82045247638121</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,10 +24271,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>377.085211642718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24417,10 +24417,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>147.4609218293966</v>
       </c>
       <c r="U25" t="n">
-        <v>100.4001306773534</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24451,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>344.5464506115376</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>110.4600290656292</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,10 +24499,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24609,13 +24609,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24651,10 +24651,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>24.77017625524098</v>
       </c>
       <c r="T28" t="n">
-        <v>147.4609218293966</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24691,16 +24691,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>249.848249080512</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>24.84237023109938</v>
       </c>
     </row>
     <row r="30">
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24888,10 +24888,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -24900,13 +24900,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>203.2493398454936</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>32.77294582383536</v>
       </c>
     </row>
     <row r="32">
@@ -24919,13 +24919,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>153.1883133533575</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24979,13 +24979,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>121.8570868232605</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25128,7 +25128,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>119.3426388887469</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -25137,13 +25137,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>146.4966259053222</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>358.586209244552</v>
+        <v>211.1891309659159</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25165,7 +25165,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,10 +25207,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25219,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>107.7439527351646</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>147.4609218293966</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>180.6981307140541</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -25444,19 +25444,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>353.0223854144596</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25605,16 +25605,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>38.35055233202189</v>
       </c>
       <c r="X40" t="n">
-        <v>153.6216279422646</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>107.4692863588273</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>78.50481543230541</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>3.965197319258863</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25842,16 +25842,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>20.99383721860437</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25867,7 +25867,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>158.1723360975045</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25876,13 +25876,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25921,16 +25921,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>66.39418670416947</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26025,19 +26025,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>2.993021879107943</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>147.4609218293961</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>409992.2446053785</v>
+        <v>362616.6230072703</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>409992.2446053785</v>
+        <v>379382.0342027748</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>441595.0580613401</v>
+        <v>408111.9599248167</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>871958.5900271862</v>
+        <v>684371.1989135398</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>871958.5900271862</v>
+        <v>684371.1989135396</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>871958.5900271864</v>
+        <v>871958.5900271862</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>871958.5900271864</v>
+        <v>871958.5900271862</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>871958.5900271866</v>
+        <v>871958.5900271864</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>871958.5900271862</v>
+        <v>871958.5900271864</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>871958.5900271864</v>
+        <v>871958.5900271867</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>871958.5900271866</v>
+        <v>871958.5900271864</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>871958.5900271864</v>
+        <v>871958.5900271862</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>871958.5900271862</v>
+        <v>871958.5900271864</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>871958.5900271864</v>
+        <v>871958.5900271866</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>131506.9463828572</v>
+        <v>116310.9922853508</v>
       </c>
       <c r="C2" t="n">
-        <v>131506.9463828572</v>
+        <v>121688.5770084371</v>
       </c>
       <c r="D2" t="n">
-        <v>141643.6978687317</v>
+        <v>130903.8362022996</v>
       </c>
       <c r="E2" t="n">
-        <v>279684.8307634371</v>
+        <v>219515.2902175503</v>
       </c>
       <c r="F2" t="n">
-        <v>279684.830763437</v>
+        <v>219515.2902175503</v>
       </c>
       <c r="G2" t="n">
-        <v>279684.830763437</v>
+        <v>279684.8307634372</v>
       </c>
       <c r="H2" t="n">
         <v>279684.8307634371</v>
       </c>
       <c r="I2" t="n">
+        <v>279684.8307634371</v>
+      </c>
+      <c r="J2" t="n">
+        <v>279684.8307634371</v>
+      </c>
+      <c r="K2" t="n">
+        <v>279684.8307634371</v>
+      </c>
+      <c r="L2" t="n">
         <v>279684.830763437</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
+        <v>279684.8307634371</v>
+      </c>
+      <c r="N2" t="n">
+        <v>279684.8307634369</v>
+      </c>
+      <c r="O2" t="n">
         <v>279684.830763437</v>
       </c>
-      <c r="K2" t="n">
+      <c r="P2" t="n">
         <v>279684.830763437</v>
-      </c>
-      <c r="L2" t="n">
-        <v>279684.8307634371</v>
-      </c>
-      <c r="M2" t="n">
-        <v>279684.830763437</v>
-      </c>
-      <c r="N2" t="n">
-        <v>279684.830763437</v>
-      </c>
-      <c r="O2" t="n">
-        <v>279684.8307634369</v>
-      </c>
-      <c r="P2" t="n">
-        <v>279684.8307634371</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>542655.4349751303</v>
+        <v>471995.0992489056</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23151.37050443034</v>
       </c>
       <c r="D3" t="n">
-        <v>43803.80384074507</v>
+        <v>38987.52889819869</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.6436336674</v>
+        <v>394942.2080289242</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>262827.3641644184</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,25 +26389,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>38421.40650613405</v>
+        <v>24245.22799179794</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5005.218442393622</v>
       </c>
       <c r="L3" t="n">
-        <v>10295.60674904876</v>
+        <v>8241.274813353784</v>
       </c>
       <c r="M3" t="n">
-        <v>160456.4418678774</v>
+        <v>99043.58793293631</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>69617.08519290929</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.1921479602627</v>
+        <v>67.14558386063672</v>
       </c>
       <c r="C4" t="n">
-        <v>107.1921479602626</v>
+        <v>81.37067654131212</v>
       </c>
       <c r="D4" t="n">
-        <v>137.8001180723342</v>
+        <v>105.5521581027501</v>
       </c>
       <c r="E4" t="n">
+        <v>384.3219252469136</v>
+      </c>
+      <c r="F4" t="n">
+        <v>384.3219252469135</v>
+      </c>
+      <c r="G4" t="n">
         <v>584.6469890061231</v>
-      </c>
-      <c r="F4" t="n">
-        <v>584.6469890061231</v>
-      </c>
-      <c r="G4" t="n">
-        <v>584.646989006123</v>
       </c>
       <c r="H4" t="n">
         <v>584.6469890061231</v>
@@ -26459,7 +26459,7 @@
         <v>584.6469890061231</v>
       </c>
       <c r="P4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.6469890061234</v>
       </c>
     </row>
     <row r="5">
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>53719.11977902089</v>
+        <v>49237.11966583622</v>
       </c>
       <c r="C5" t="n">
-        <v>53719.11977902088</v>
+        <v>50823.37311172271</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161359</v>
+        <v>53538.12534878444</v>
       </c>
       <c r="E5" t="n">
+        <v>51571.48185587223</v>
+      </c>
+      <c r="F5" t="n">
+        <v>51571.48185587223</v>
+      </c>
+      <c r="G5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="H5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="I5" t="n">
         <v>74306.34056139328</v>
-      </c>
-      <c r="F5" t="n">
-        <v>74306.34056139328</v>
-      </c>
-      <c r="G5" t="n">
-        <v>74306.34056139328</v>
-      </c>
-      <c r="H5" t="n">
-        <v>74306.34056139328</v>
-      </c>
-      <c r="I5" t="n">
-        <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="L5" t="n">
         <v>74306.3405613933</v>
-      </c>
-      <c r="L5" t="n">
-        <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-477765.142037458</v>
+        <v>-406356.7943303515</v>
       </c>
       <c r="C6" t="n">
-        <v>64890.2929376723</v>
+        <v>46295.67344995518</v>
       </c>
       <c r="D6" t="n">
-        <v>28522.2314792661</v>
+        <v>36990.04793844889</v>
       </c>
       <c r="E6" t="n">
-        <v>-426414.7957987993</v>
+        <v>-228144.0596041093</v>
       </c>
       <c r="F6" t="n">
-        <v>200719.8478348679</v>
+        <v>166798.1484248148</v>
       </c>
       <c r="G6" t="n">
-        <v>200719.8478348679</v>
+        <v>-58440.92048919755</v>
       </c>
       <c r="H6" t="n">
-        <v>200719.847834868</v>
+        <v>204386.4436752207</v>
       </c>
       <c r="I6" t="n">
-        <v>200719.847834868</v>
+        <v>204386.4436752207</v>
       </c>
       <c r="J6" t="n">
-        <v>162298.4413287339</v>
+        <v>180141.2156834228</v>
       </c>
       <c r="K6" t="n">
-        <v>200719.847834868</v>
+        <v>199381.225232827</v>
       </c>
       <c r="L6" t="n">
-        <v>190424.2410858193</v>
+        <v>196145.1688618668</v>
       </c>
       <c r="M6" t="n">
-        <v>40263.40596699055</v>
+        <v>105342.8557422844</v>
       </c>
       <c r="N6" t="n">
-        <v>200719.8478348679</v>
+        <v>204386.4436752205</v>
       </c>
       <c r="O6" t="n">
-        <v>200719.8478348679</v>
+        <v>134769.3584823114</v>
       </c>
       <c r="P6" t="n">
-        <v>200719.8478348681</v>
+        <v>204386.4436752204</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>512.0768631572207</v>
+        <v>457.5913187641655</v>
       </c>
       <c r="C3" t="n">
-        <v>512.0768631572206</v>
+        <v>476.1157511985022</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129048</v>
+        <v>509.8291662011503</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>853.710664537684</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26779,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
     </row>
     <row r="4">
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.8461210887085</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="C4" t="n">
-        <v>146.8461210887083</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663201</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="E4" t="n">
+        <v>542.1149567261632</v>
+      </c>
+      <c r="F4" t="n">
+        <v>542.1149567261632</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="H4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="I4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="F4" t="n">
+      <c r="J4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="K4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="G4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="L4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="M4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="J4" t="n">
+      <c r="N4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="K4" t="n">
+      <c r="O4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="L4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="N4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="O4" t="n">
-        <v>831.4014554022925</v>
-      </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
     </row>
   </sheetData>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>512.0768631572207</v>
+        <v>457.5913187641655</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>18.52443243433669</v>
       </c>
       <c r="D3" t="n">
-        <v>36.3930777556842</v>
+        <v>33.71341500264811</v>
       </c>
       <c r="E3" t="n">
-        <v>541.3067596803935</v>
+        <v>343.8814983365338</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>236.0660360556143</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27011,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.8461210887085</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>19.44771083582151</v>
       </c>
       <c r="D4" t="n">
-        <v>40.67946607761178</v>
+        <v>32.56249654611858</v>
       </c>
       <c r="E4" t="n">
-        <v>643.8758682359725</v>
+        <v>397.4398000551209</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>289.2864986761294</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,22 +27035,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>146.8461210887085</v>
+        <v>92.66494928910254</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>19.44771083582117</v>
       </c>
       <c r="L4" t="n">
-        <v>40.67946607761144</v>
+        <v>32.56249654611892</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359728</v>
+        <v>397.4398000551207</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>289.2864986761297</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>146.8461210887085</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>19.44771083582151</v>
       </c>
       <c r="L4" t="n">
-        <v>40.67946607761178</v>
+        <v>32.56249654611858</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359725</v>
+        <v>397.4398000551209</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>289.2864986761294</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.058600454903398</v>
+        <v>1.839563090509207</v>
       </c>
       <c r="H2" t="n">
-        <v>21.08264190877943</v>
+        <v>18.83942550067742</v>
       </c>
       <c r="I2" t="n">
-        <v>79.36419403766334</v>
+        <v>70.91975604685626</v>
       </c>
       <c r="J2" t="n">
-        <v>174.7211403593575</v>
+        <v>156.1306178531059</v>
       </c>
       <c r="K2" t="n">
-        <v>261.8616976154183</v>
+        <v>233.9993234743607</v>
       </c>
       <c r="L2" t="n">
-        <v>324.8625912871683</v>
+        <v>290.2968524055319</v>
       </c>
       <c r="M2" t="n">
-        <v>361.4722271270566</v>
+        <v>323.011182516375</v>
       </c>
       <c r="N2" t="n">
-        <v>367.3212256695509</v>
+        <v>322.0780128856931</v>
       </c>
       <c r="O2" t="n">
-        <v>346.8510173961052</v>
+        <v>309.9456856660333</v>
       </c>
       <c r="P2" t="n">
-        <v>296.0293186656775</v>
+        <v>264.5314718690873</v>
       </c>
       <c r="Q2" t="n">
-        <v>222.3056898744495</v>
+        <v>198.6521186902262</v>
       </c>
       <c r="R2" t="n">
-        <v>129.3135608253257</v>
+        <v>115.5544549841991</v>
       </c>
       <c r="S2" t="n">
-        <v>46.91035786611123</v>
+        <v>41.91904392497859</v>
       </c>
       <c r="T2" t="n">
-        <v>9.011523491339631</v>
+        <v>8.052687428704056</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1646880363922718</v>
+        <v>0.1471650472407365</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.101448347168362</v>
+        <v>0.9842530252663183</v>
       </c>
       <c r="H3" t="n">
-        <v>10.63767219502076</v>
+        <v>9.505812112440497</v>
       </c>
       <c r="I3" t="n">
-        <v>37.92267335645456</v>
+        <v>33.88765898395</v>
       </c>
       <c r="J3" t="n">
-        <v>104.0627142383933</v>
+        <v>92.99032639149897</v>
       </c>
       <c r="K3" t="n">
-        <v>177.8597534986735</v>
+        <v>158.9352790843423</v>
       </c>
       <c r="L3" t="n">
-        <v>239.1543878358322</v>
+        <v>213.7080965605662</v>
       </c>
       <c r="M3" t="n">
-        <v>279.0818904206852</v>
+        <v>234.7989832111205</v>
       </c>
       <c r="N3" t="n">
-        <v>278.1878331720418</v>
+        <v>163.7876250036813</v>
       </c>
       <c r="O3" t="n">
-        <v>262.0625810914128</v>
+        <v>234.1788327264121</v>
       </c>
       <c r="P3" t="n">
-        <v>170.929937097644</v>
+        <v>187.9491588335306</v>
       </c>
       <c r="Q3" t="n">
-        <v>140.5989153332807</v>
+        <v>125.6390352953988</v>
       </c>
       <c r="R3" t="n">
-        <v>68.38641580050584</v>
+        <v>61.11002555118424</v>
       </c>
       <c r="S3" t="n">
-        <v>20.45891995727197</v>
+        <v>18.28206825439849</v>
       </c>
       <c r="T3" t="n">
-        <v>4.439609785297034</v>
+        <v>3.967230395700641</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07246370705055014</v>
+        <v>0.06475348850436308</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9234172942179388</v>
+        <v>0.8251646731812819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.210019215864953</v>
+        <v>7.336464094284494</v>
       </c>
       <c r="I4" t="n">
-        <v>27.76967644793584</v>
+        <v>24.81495217166983</v>
       </c>
       <c r="J4" t="n">
-        <v>65.28560270120828</v>
+        <v>58.33914239391663</v>
       </c>
       <c r="K4" t="n">
-        <v>107.2843001827751</v>
+        <v>95.8691320296071</v>
       </c>
       <c r="L4" t="n">
-        <v>137.2869675421834</v>
+        <v>122.6794824109699</v>
       </c>
       <c r="M4" t="n">
-        <v>144.7498582199993</v>
+        <v>129.3483132696804</v>
       </c>
       <c r="N4" t="n">
-        <v>141.3080301233689</v>
+        <v>126.272699487823</v>
       </c>
       <c r="O4" t="n">
-        <v>130.5208371863684</v>
+        <v>116.6332758056598</v>
       </c>
       <c r="P4" t="n">
-        <v>111.6831243843223</v>
+        <v>99.79991647276155</v>
       </c>
       <c r="Q4" t="n">
-        <v>77.32360633674033</v>
+        <v>69.09628913338899</v>
       </c>
       <c r="R4" t="n">
-        <v>41.52019942910841</v>
+        <v>37.102404305042</v>
       </c>
       <c r="S4" t="n">
-        <v>16.09264502741626</v>
+        <v>14.38036980444106</v>
       </c>
       <c r="T4" t="n">
-        <v>3.945510257113011</v>
+        <v>3.52570360359275</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05036821604825127</v>
+        <v>0.04500898217352452</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.058600454903398</v>
+        <v>1.914033170647244</v>
       </c>
       <c r="H5" t="n">
-        <v>21.08264190877943</v>
+        <v>19.60209220889109</v>
       </c>
       <c r="I5" t="n">
-        <v>79.36419403766332</v>
+        <v>73.79076381137793</v>
       </c>
       <c r="J5" t="n">
-        <v>174.7211403593574</v>
+        <v>162.4511728172216</v>
       </c>
       <c r="K5" t="n">
-        <v>261.8616976154183</v>
+        <v>243.4721969307195</v>
       </c>
       <c r="L5" t="n">
-        <v>324.8625912871682</v>
+        <v>302.0487895769152</v>
       </c>
       <c r="M5" t="n">
-        <v>361.4722271270565</v>
+        <v>336.087476975413</v>
       </c>
       <c r="N5" t="n">
-        <v>367.3212256695508</v>
+        <v>341.5257237215146</v>
       </c>
       <c r="O5" t="n">
-        <v>346.8510173961051</v>
+        <v>322.493056380891</v>
       </c>
       <c r="P5" t="n">
-        <v>296.0293186656775</v>
+        <v>275.2403624805372</v>
       </c>
       <c r="Q5" t="n">
-        <v>222.3056898744495</v>
+        <v>206.6940495567327</v>
       </c>
       <c r="R5" t="n">
-        <v>129.3135608253257</v>
+        <v>120.23238615567</v>
       </c>
       <c r="S5" t="n">
-        <v>46.91035786611123</v>
+        <v>43.61603087612411</v>
       </c>
       <c r="T5" t="n">
-        <v>9.011523491339629</v>
+        <v>8.378680204508314</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1646880363922718</v>
+        <v>0.1531226536517795</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.101448347168361</v>
+        <v>1.024098030879797</v>
       </c>
       <c r="H6" t="n">
-        <v>10.63767219502075</v>
+        <v>9.890630982444359</v>
       </c>
       <c r="I6" t="n">
-        <v>37.92267335645455</v>
+        <v>35.25951553687022</v>
       </c>
       <c r="J6" t="n">
-        <v>104.0627142383933</v>
+        <v>96.75480562798998</v>
       </c>
       <c r="K6" t="n">
-        <v>177.8597534986735</v>
+        <v>165.3693736969364</v>
       </c>
       <c r="L6" t="n">
-        <v>239.1543878358322</v>
+        <v>222.3595307837911</v>
       </c>
       <c r="M6" t="n">
-        <v>279.0818904206852</v>
+        <v>254.246694046942</v>
       </c>
       <c r="N6" t="n">
-        <v>278.1878331720416</v>
+        <v>243.454372208257</v>
       </c>
       <c r="O6" t="n">
-        <v>262.0625810914127</v>
+        <v>189.3752746148964</v>
       </c>
       <c r="P6" t="n">
-        <v>170.9299370976436</v>
+        <v>195.5578073177395</v>
       </c>
       <c r="Q6" t="n">
-        <v>140.5989153332807</v>
+        <v>130.7252153102001</v>
       </c>
       <c r="R6" t="n">
-        <v>68.38641580050583</v>
+        <v>63.58391107515094</v>
       </c>
       <c r="S6" t="n">
-        <v>20.45891995727196</v>
+        <v>19.0221717577892</v>
       </c>
       <c r="T6" t="n">
-        <v>4.439609785297034</v>
+        <v>4.127833729730409</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07246370705055012</v>
+        <v>0.06737487045261827</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9234172942179387</v>
+        <v>0.8585693874071351</v>
       </c>
       <c r="H7" t="n">
-        <v>8.210019215864952</v>
+        <v>7.633462371674351</v>
       </c>
       <c r="I7" t="n">
-        <v>27.76967644793584</v>
+        <v>25.8195230322073</v>
       </c>
       <c r="J7" t="n">
-        <v>65.28560270120826</v>
+        <v>60.70085568968445</v>
       </c>
       <c r="K7" t="n">
-        <v>107.284300182775</v>
+        <v>99.75015246421076</v>
       </c>
       <c r="L7" t="n">
-        <v>137.2869675421834</v>
+        <v>127.6458523786935</v>
       </c>
       <c r="M7" t="n">
-        <v>144.7498582199992</v>
+        <v>134.584654064193</v>
       </c>
       <c r="N7" t="n">
-        <v>141.3080301233688</v>
+        <v>131.3845318020392</v>
       </c>
       <c r="O7" t="n">
-        <v>130.5208371863683</v>
+        <v>121.354880321874</v>
       </c>
       <c r="P7" t="n">
-        <v>111.6831243843223</v>
+        <v>103.8400648187684</v>
       </c>
       <c r="Q7" t="n">
-        <v>77.32360633674031</v>
+        <v>71.89347843097383</v>
       </c>
       <c r="R7" t="n">
-        <v>41.52019942910839</v>
+        <v>38.60440172832445</v>
       </c>
       <c r="S7" t="n">
-        <v>16.09264502741625</v>
+        <v>14.96252286963161</v>
       </c>
       <c r="T7" t="n">
-        <v>3.94551025711301</v>
+        <v>3.668432837103212</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05036821604825126</v>
+        <v>0.04683105749493469</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077002</v>
+        <v>2.049564487240804</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954486</v>
+        <v>20.99010230495489</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043123</v>
+        <v>79.01583489435116</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655544</v>
+        <v>173.9542238989543</v>
       </c>
       <c r="K8" t="n">
-        <v>280.472093452864</v>
+        <v>260.7122886438576</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672894</v>
+        <v>323.4366478202534</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470275</v>
+        <v>359.8855902702221</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470026</v>
+        <v>365.708915369595</v>
       </c>
       <c r="O8" t="n">
-        <v>371.5015668622681</v>
+        <v>345.3285584995942</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244296</v>
+        <v>294.7299352208368</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151093</v>
+        <v>221.3299070215255</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974684</v>
+        <v>128.7459552216403</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619225</v>
+        <v>46.70445075299986</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924584</v>
+        <v>8.971968542896622</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1639651589792643</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.179727797435305</v>
+        <v>1.096613678243984</v>
       </c>
       <c r="H9" t="n">
-        <v>11.39368688575676</v>
+        <v>10.59097947146163</v>
       </c>
       <c r="I9" t="n">
-        <v>40.61782109590852</v>
+        <v>37.75621655357576</v>
       </c>
       <c r="J9" t="n">
-        <v>111.4584056340083</v>
+        <v>103.6059440484809</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621737</v>
+        <v>177.0790604908279</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405033</v>
+        <v>238.1046497432826</v>
       </c>
       <c r="M9" t="n">
-        <v>298.9161177975331</v>
+        <v>277.8568955796269</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829655</v>
+        <v>276.0168687543756</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292674</v>
+        <v>260.9122903671113</v>
       </c>
       <c r="P9" t="n">
-        <v>225.2762668628873</v>
+        <v>169.3276174917068</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936715</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
-        <v>73.2466083355008</v>
+        <v>68.08624223342912</v>
       </c>
       <c r="S9" t="n">
-        <v>21.91292641288821</v>
+        <v>20.36911810247047</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820371</v>
+        <v>4.42012267678167</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07214563672657791</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9193640701987955</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620019</v>
+        <v>8.17398236958566</v>
       </c>
       <c r="I10" t="n">
-        <v>29.74325515639163</v>
+        <v>27.64778494743288</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114197</v>
+        <v>64.99903976305484</v>
       </c>
       <c r="K10" t="n">
-        <v>114.9089482765069</v>
+        <v>106.8133892467328</v>
       </c>
       <c r="L10" t="n">
-        <v>147.0438920276991</v>
+        <v>136.68436367301</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682166</v>
+        <v>144.114496931253</v>
       </c>
       <c r="N10" t="n">
-        <v>151.3507297604415</v>
+        <v>140.6877763059667</v>
       </c>
       <c r="O10" t="n">
-        <v>139.7968957592434</v>
+        <v>129.947932395008</v>
       </c>
       <c r="P10" t="n">
-        <v>119.6203949820538</v>
+        <v>111.1929053629525</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784863</v>
+        <v>76.9842040963737</v>
       </c>
       <c r="R10" t="n">
-        <v>44.47102176647912</v>
+        <v>41.33795173821129</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147603</v>
+        <v>16.02200838700991</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181396</v>
+        <v>3.928191936303944</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05014713110175254</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>541.5957615840425</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>602.6296390934777</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>493.5262741662297</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>370.6176784928394</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>78.20676087699489</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.2745602137206619</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>63.22291242095114</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>398.7070419616797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>465.2723121730377</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>477.5866858152842</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>436.8985133884504</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>350.6495746475631</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>34.10815721053858</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>7.401510384057842</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>46.29630948017474</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>108.8411121001568</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>228.8784296368735</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>241.3202129282505</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>235.5821576420138</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>69.22054011153088</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>6.577770693978874</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32259,7 +32259,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356356</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
         <v>99.83230779806951</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34368,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>41.77184657043779</v>
+        <v>13.90947242938014</v>
       </c>
       <c r="L2" t="n">
-        <v>89.09617631718106</v>
+        <v>54.53043743554463</v>
       </c>
       <c r="M2" t="n">
-        <v>131.1259938997839</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="N2" t="n">
-        <v>137.90816207296</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="O2" t="n">
-        <v>116.7528059744185</v>
+        <v>79.84747424434661</v>
       </c>
       <c r="P2" t="n">
-        <v>64.79632291040798</v>
+        <v>33.29847611381774</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>40.01831452431455</v>
+        <v>21.09384010998329</v>
       </c>
       <c r="L3" t="n">
-        <v>100.600008055958</v>
+        <v>75.15371678069201</v>
       </c>
       <c r="M3" t="n">
-        <v>136.9478564986669</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="N3" t="n">
-        <v>146.8461210887085</v>
+        <v>32.44591292034803</v>
       </c>
       <c r="O3" t="n">
-        <v>119.4663366469683</v>
+        <v>91.5825882819677</v>
       </c>
       <c r="P3" t="n">
-        <v>36.95552968331378</v>
+        <v>53.97475141920032</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.617141247259184</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,13 +34862,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>2.402291260945134</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>5.824074272394199</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>13.62248565813567</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>41.77184657043773</v>
+        <v>23.38234588573897</v>
       </c>
       <c r="L5" t="n">
-        <v>89.096176317181</v>
+        <v>66.28237460692793</v>
       </c>
       <c r="M5" t="n">
-        <v>131.1259938997838</v>
+        <v>105.7412437481403</v>
       </c>
       <c r="N5" t="n">
-        <v>137.9081620729599</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="O5" t="n">
-        <v>116.7528059744184</v>
+        <v>92.39484495920428</v>
       </c>
       <c r="P5" t="n">
-        <v>64.79632291040792</v>
+        <v>44.00736672526762</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>40.01831452431452</v>
+        <v>27.52793472257738</v>
       </c>
       <c r="L6" t="n">
-        <v>100.600008055958</v>
+        <v>83.8051510039169</v>
       </c>
       <c r="M6" t="n">
-        <v>136.9478564986669</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="N6" t="n">
-        <v>146.8461210887083</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="O6" t="n">
-        <v>119.4663366469683</v>
+        <v>46.77903017045198</v>
       </c>
       <c r="P6" t="n">
-        <v>36.95552968331332</v>
+        <v>61.58339990340929</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.6171412472591555</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,13 +35099,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>2.402291260945105</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>5.824074272394171</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>13.62248565813564</v>
+        <v>3.698987336806027</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538868137</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788344</v>
+        <v>40.62243759887707</v>
       </c>
       <c r="L8" t="n">
-        <v>112.1840179973021</v>
+        <v>87.67023285026619</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197548</v>
+        <v>129.5393570429493</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504117</v>
+        <v>136.2958517730041</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405814</v>
+        <v>115.2303470779075</v>
       </c>
       <c r="P8" t="n">
-        <v>85.83499656916001</v>
+        <v>63.49693946556727</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.79916774065984</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781475</v>
+        <v>39.23762151646886</v>
       </c>
       <c r="L9" t="n">
-        <v>117.5966053606292</v>
+        <v>99.55026996340837</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755148</v>
+        <v>135.7228616576086</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4858258996322</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="O9" t="n">
-        <v>138.091009184823</v>
+        <v>118.3160459226669</v>
       </c>
       <c r="P9" t="n">
-        <v>91.30185944855702</v>
+        <v>35.35321007737658</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440765002</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,16 +35336,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>12.15921574646083</v>
+        <v>1.799687391771755</v>
       </c>
       <c r="M10" t="n">
-        <v>16.11138312061158</v>
+        <v>5.188712983647946</v>
       </c>
       <c r="N10" t="n">
-        <v>23.66518529520832</v>
+        <v>13.00223184073349</v>
       </c>
       <c r="O10" t="n">
-        <v>1.340357307400581</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94217529034289</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>99.30389319966704</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L13" t="n">
-        <v>157.2826706286437</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M13" t="n">
-        <v>169.1237184840382</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N13" t="n">
-        <v>173.0392293230783</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O13" t="n">
-        <v>139.3114638567573</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P13" t="n">
-        <v>99.95050783106933</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.0512801601422</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>110.2410322142394</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>216.4737587808905</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>305.8293466140553</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>372.283405866205</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>262.2932784109601</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>46.65087734093947</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>323.1382782510194</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>94.41818044892904</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034289</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>99.30389319966704</v>
+        <v>49.84612367850721</v>
       </c>
       <c r="L16" t="n">
-        <v>157.2826706286437</v>
+        <v>93.99375335563525</v>
       </c>
       <c r="M16" t="n">
-        <v>169.1237184840382</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N16" t="n">
-        <v>173.0392293230783</v>
+        <v>107.8966131767806</v>
       </c>
       <c r="O16" t="n">
-        <v>139.3114638567573</v>
+        <v>79.14171420769679</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106933</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.0512801601422</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222388</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K46" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L46" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M46" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N46" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O46" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P46" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
